--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9B1DB-2CF3-4E4F-B3EB-AFFC26C122BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306A34BF-CACA-46D8-88A0-9799252E2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -1401,7 +1401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1409,7 +1409,7 @@
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
     <col min="3" max="5" width="11.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="3" customWidth="1"/>
@@ -1789,8 +1789,8 @@
       <c r="H9" s="29">
         <v>15</v>
       </c>
-      <c r="I9" s="19">
-        <v>32</v>
+      <c r="I9" s="14">
+        <v>10</v>
       </c>
       <c r="J9" s="13">
         <v>1.5</v>
@@ -1840,7 +1840,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J10" s="13">
         <v>1.5</v>
@@ -1886,8 +1886,8 @@
       <c r="H11" s="10">
         <v>15</v>
       </c>
-      <c r="I11" s="14">
-        <v>20</v>
+      <c r="I11" s="19">
+        <v>32</v>
       </c>
       <c r="J11" s="13">
         <v>1.5</v>
@@ -2559,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="14">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="J25" s="13">
         <v>1.5</v>
@@ -2608,8 +2608,8 @@
       <c r="H26" s="10">
         <v>15</v>
       </c>
-      <c r="I26" s="14">
-        <v>110</v>
+      <c r="I26" s="25">
+        <v>280</v>
       </c>
       <c r="J26" s="13">
         <v>1.5</v>
@@ -2656,8 +2656,8 @@
       <c r="H27" s="10">
         <v>25</v>
       </c>
-      <c r="I27" s="25">
-        <v>280</v>
+      <c r="I27" s="14">
+        <v>320</v>
       </c>
       <c r="J27" s="13">
         <v>1.5</v>
@@ -2944,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="34">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="J33" s="33">
         <v>1.5</v>
@@ -2994,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="34">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="J34" s="33">
         <v>1.5</v>
@@ -3041,7 +3041,7 @@
         <v>15</v>
       </c>
       <c r="I35" s="34">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="J35" s="33">
         <v>1.5</v>
@@ -3327,8 +3327,8 @@
       <c r="H41" s="10">
         <v>15</v>
       </c>
-      <c r="I41" s="14">
-        <v>1200</v>
+      <c r="I41" s="25">
+        <v>440</v>
       </c>
       <c r="J41" s="13">
         <v>1.5</v>
@@ -3377,8 +3377,8 @@
       <c r="H42" s="10">
         <v>15</v>
       </c>
-      <c r="I42" s="25">
-        <v>440</v>
+      <c r="I42" s="14">
+        <v>1000</v>
       </c>
       <c r="J42" s="13">
         <v>1.5</v>
@@ -3426,7 +3426,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="14">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J43" s="13">
         <v>1.5</v>
@@ -3713,7 +3713,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="34">
-        <v>2020</v>
+        <v>740</v>
       </c>
       <c r="J49" s="33">
         <v>1.5</v>
@@ -3763,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="34">
-        <v>740</v>
+        <v>1595</v>
       </c>
       <c r="J50" s="33">
         <v>1.5</v>
@@ -3810,7 +3810,7 @@
         <v>15</v>
       </c>
       <c r="I51" s="34">
-        <v>1595</v>
+        <v>2020</v>
       </c>
       <c r="J51" s="33">
         <v>1.5</v>
@@ -4096,8 +4096,8 @@
       <c r="H57" s="10">
         <v>15</v>
       </c>
-      <c r="I57" s="14">
-        <v>3420</v>
+      <c r="I57" s="25">
+        <v>1240</v>
       </c>
       <c r="J57" s="13">
         <v>1.5</v>
@@ -4146,8 +4146,8 @@
       <c r="H58" s="10">
         <v>15</v>
       </c>
-      <c r="I58" s="25">
-        <v>1240</v>
+      <c r="I58" s="14">
+        <v>2585</v>
       </c>
       <c r="J58" s="13">
         <v>1.5</v>
@@ -4195,7 +4195,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="14">
-        <v>2585</v>
+        <v>3420</v>
       </c>
       <c r="J59" s="13">
         <v>1.5</v>
@@ -4482,7 +4482,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="34">
-        <v>5700</v>
+        <v>1890</v>
       </c>
       <c r="J65" s="33">
         <v>1.5</v>
@@ -4532,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="34">
-        <v>1890</v>
+        <v>4295</v>
       </c>
       <c r="J66" s="33">
         <v>1.5</v>
@@ -4580,7 +4580,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="34">
-        <v>4295</v>
+        <v>5700</v>
       </c>
       <c r="J67" s="33">
         <v>1.5</v>
@@ -4677,7 +4677,7 @@
         <v>120</v>
       </c>
       <c r="I69" s="47">
-        <v>45000</v>
+        <v>1200000</v>
       </c>
       <c r="J69" s="44">
         <v>2</v>
@@ -4720,7 +4720,7 @@
         <v>10000</v>
       </c>
       <c r="I70" s="47">
-        <v>4000000</v>
+        <v>50000000000</v>
       </c>
       <c r="J70" s="44">
         <v>2</v>
@@ -4989,8 +4989,8 @@
       <c r="H76" s="30">
         <v>15</v>
       </c>
-      <c r="I76" s="36">
-        <v>32</v>
+      <c r="I76" s="34">
+        <v>10</v>
       </c>
       <c r="J76" s="33">
         <v>1.5</v>
@@ -5037,7 +5037,7 @@
         <v>15</v>
       </c>
       <c r="I77" s="34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J77" s="33">
         <v>1.5</v>
@@ -5083,8 +5083,8 @@
       <c r="H78" s="30">
         <v>15</v>
       </c>
-      <c r="I78" s="34">
-        <v>20</v>
+      <c r="I78" s="36">
+        <v>32</v>
       </c>
       <c r="J78" s="33">
         <v>1.5</v>
@@ -5734,7 +5734,7 @@
         <v>15</v>
       </c>
       <c r="I92" s="34">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="J92" s="33">
         <v>1.5</v>
@@ -5780,8 +5780,8 @@
       <c r="H93" s="30">
         <v>15</v>
       </c>
-      <c r="I93" s="34">
-        <v>110</v>
+      <c r="I93" s="39">
+        <v>280</v>
       </c>
       <c r="J93" s="33">
         <v>1.5</v>
@@ -5827,8 +5827,8 @@
       <c r="H94" s="30">
         <v>15</v>
       </c>
-      <c r="I94" s="39">
-        <v>280</v>
+      <c r="I94" s="34">
+        <v>320</v>
       </c>
       <c r="J94" s="33">
         <v>1.5</v>
@@ -6106,7 +6106,7 @@
         <v>15</v>
       </c>
       <c r="I100" s="14">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="J100" s="13">
         <v>1.5</v>
@@ -6153,7 +6153,7 @@
         <v>15</v>
       </c>
       <c r="I101" s="14">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="J101" s="13">
         <v>1.5</v>
@@ -6200,7 +6200,7 @@
         <v>15</v>
       </c>
       <c r="I102" s="14">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="J102" s="13">
         <v>1.5</v>
@@ -6478,7 +6478,7 @@
         <v>15</v>
       </c>
       <c r="I108" s="34">
-        <v>1200</v>
+        <v>440</v>
       </c>
       <c r="J108" s="33">
         <v>1.5</v>
@@ -6525,7 +6525,7 @@
         <v>15</v>
       </c>
       <c r="I109" s="34">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="J109" s="33">
         <v>1.5</v>
@@ -6572,7 +6572,7 @@
         <v>15</v>
       </c>
       <c r="I110" s="34">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J110" s="33">
         <v>1.5</v>
@@ -6850,7 +6850,7 @@
         <v>15</v>
       </c>
       <c r="I116" s="14">
-        <v>2020</v>
+        <v>740</v>
       </c>
       <c r="J116" s="13">
         <v>1.5</v>
@@ -6897,7 +6897,7 @@
         <v>15</v>
       </c>
       <c r="I117" s="14">
-        <v>740</v>
+        <v>1595</v>
       </c>
       <c r="J117" s="13">
         <v>1.5</v>
@@ -6944,7 +6944,7 @@
         <v>15</v>
       </c>
       <c r="I118" s="14">
-        <v>1595</v>
+        <v>2020</v>
       </c>
       <c r="J118" s="13">
         <v>1.5</v>
@@ -7222,7 +7222,7 @@
         <v>15</v>
       </c>
       <c r="I124" s="34">
-        <v>3420</v>
+        <v>1240</v>
       </c>
       <c r="J124" s="33">
         <v>1.5</v>
@@ -7269,7 +7269,7 @@
         <v>15</v>
       </c>
       <c r="I125" s="34">
-        <v>1240</v>
+        <v>2585</v>
       </c>
       <c r="J125" s="33">
         <v>1.5</v>
@@ -7316,7 +7316,7 @@
         <v>15</v>
       </c>
       <c r="I126" s="34">
-        <v>2585</v>
+        <v>3420</v>
       </c>
       <c r="J126" s="33">
         <v>1.5</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306A34BF-CACA-46D8-88A0-9799252E2D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38465FC-E25B-4225-8E3F-9E70889EC54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1401,7 +1401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="30">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="33">
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="30">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="33">
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="10">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="13">
@@ -2411,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="10">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="13">
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="30">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="33">
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="30">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="I30" s="34"/>
       <c r="J30" s="33">
@@ -3135,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="10">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="13">
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="10">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="13">
@@ -3520,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="30">
-        <v>70</v>
+        <v>720</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="33">
@@ -3565,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="30">
-        <v>75</v>
+        <v>1350</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="33">
@@ -3904,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="10">
-        <v>70</v>
+        <v>1200</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="13">
@@ -3949,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="10">
-        <v>75</v>
+        <v>2400</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="13">
@@ -4289,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="30">
-        <v>70</v>
+        <v>2200</v>
       </c>
       <c r="I61" s="34"/>
       <c r="J61" s="33">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="30">
-        <v>75</v>
+        <v>4500</v>
       </c>
       <c r="I62" s="34"/>
       <c r="J62" s="33">
@@ -4803,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="30">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="33">
@@ -4848,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="H73" s="30">
-        <v>75</v>
+        <v>18000</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="33">
@@ -5175,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="H80" s="10">
-        <v>70</v>
+        <v>16000</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="13">
@@ -5220,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="H81" s="10">
-        <v>75</v>
+        <v>35000</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="13">
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="30">
-        <v>70</v>
+        <v>30000</v>
       </c>
       <c r="I88" s="34"/>
       <c r="J88" s="33">
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="H89" s="30">
-        <v>75</v>
+        <v>60000</v>
       </c>
       <c r="I89" s="34"/>
       <c r="J89" s="33">
@@ -5919,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="14">
-        <v>70</v>
+        <v>50000</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="13">
@@ -5964,7 +5964,7 @@
         <v>2</v>
       </c>
       <c r="H97" s="14">
-        <v>75</v>
+        <v>100000</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="13">
@@ -6291,7 +6291,7 @@
         <v>2</v>
       </c>
       <c r="H104" s="34">
-        <v>70</v>
+        <v>90000</v>
       </c>
       <c r="I104" s="34"/>
       <c r="J104" s="33">
@@ -6336,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="H105" s="34">
-        <v>75</v>
+        <v>180000</v>
       </c>
       <c r="I105" s="34"/>
       <c r="J105" s="33">
@@ -6663,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="H112" s="14">
-        <v>70</v>
+        <v>150000</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="13">
@@ -6708,7 +6708,7 @@
         <v>2</v>
       </c>
       <c r="H113" s="14">
-        <v>75</v>
+        <v>300000</v>
       </c>
       <c r="I113" s="14"/>
       <c r="J113" s="13">
@@ -7035,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="H120" s="34">
-        <v>70</v>
+        <v>180000</v>
       </c>
       <c r="I120" s="34"/>
       <c r="J120" s="33">
@@ -7080,7 +7080,7 @@
         <v>2</v>
       </c>
       <c r="H121" s="34">
-        <v>75</v>
+        <v>360000</v>
       </c>
       <c r="I121" s="34"/>
       <c r="J121" s="33">
@@ -7664,8 +7664,8 @@
       <c r="G134" s="30">
         <v>2</v>
       </c>
-      <c r="H134" s="30">
-        <v>70</v>
+      <c r="H134" s="34">
+        <v>500000</v>
       </c>
       <c r="I134" s="50"/>
       <c r="J134" s="33">
@@ -7709,8 +7709,8 @@
       <c r="G135" s="37">
         <v>2</v>
       </c>
-      <c r="H135" s="30">
-        <v>75</v>
+      <c r="H135" s="34">
+        <v>1000000</v>
       </c>
       <c r="I135" s="38"/>
       <c r="J135" s="37">
@@ -8036,8 +8036,8 @@
       <c r="G142" s="10">
         <v>2</v>
       </c>
-      <c r="H142" s="14">
-        <v>70</v>
+      <c r="H142" s="34">
+        <v>800000</v>
       </c>
       <c r="I142" s="10"/>
       <c r="J142" s="13">
@@ -8081,8 +8081,8 @@
       <c r="G143" s="21">
         <v>2</v>
       </c>
-      <c r="H143" s="22">
-        <v>75</v>
+      <c r="H143" s="34">
+        <v>1600000</v>
       </c>
       <c r="I143" s="10"/>
       <c r="J143" s="21">
@@ -8409,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="H150" s="34">
-        <v>70</v>
+        <v>2000000</v>
       </c>
       <c r="I150" s="30"/>
       <c r="J150" s="33">
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="H151" s="51">
-        <v>75</v>
+        <v>4000000</v>
       </c>
       <c r="I151" s="30"/>
       <c r="J151" s="37">
@@ -8824,7 +8824,7 @@
         <v>2</v>
       </c>
       <c r="H159" s="14">
-        <v>70</v>
+        <v>4200000</v>
       </c>
       <c r="I159" s="13"/>
       <c r="J159" s="13">
@@ -8869,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="H160" s="22">
-        <v>75</v>
+        <v>8400000</v>
       </c>
       <c r="I160" s="13"/>
       <c r="J160" s="21">
@@ -9195,8 +9195,8 @@
       <c r="G167" s="30">
         <v>2</v>
       </c>
-      <c r="H167" s="33">
-        <v>70</v>
+      <c r="H167" s="34">
+        <v>16000000</v>
       </c>
       <c r="I167" s="33"/>
       <c r="J167" s="33">
@@ -9241,7 +9241,7 @@
         <v>2</v>
       </c>
       <c r="H168" s="51">
-        <v>75</v>
+        <v>32000000</v>
       </c>
       <c r="I168" s="51"/>
       <c r="J168" s="51">

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1247,6 +1247,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1255,9 +1361,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O70" activeCellId="0" sqref="O70"/>
+      <selection pane="bottomLeft" activeCell="L134" activeCellId="0" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7216,7 +7322,7 @@
         <v>156</v>
       </c>
       <c r="D127" s="42" t="n">
-        <v>3003</v>
+        <v>2007</v>
       </c>
       <c r="E127" s="42" t="n">
         <v>0</v>
@@ -7259,7 +7365,7 @@
         <v>158</v>
       </c>
       <c r="D128" s="42" t="n">
-        <v>3004</v>
+        <v>2008</v>
       </c>
       <c r="E128" s="42" t="n">
         <v>0</v>
@@ -7302,7 +7408,7 @@
         <v>160</v>
       </c>
       <c r="D129" s="42" t="n">
-        <v>3005</v>
+        <v>2009</v>
       </c>
       <c r="E129" s="42" t="n">
         <v>0</v>
@@ -7345,7 +7451,7 @@
         <v>162</v>
       </c>
       <c r="D130" s="42" t="n">
-        <v>3006</v>
+        <v>2010</v>
       </c>
       <c r="E130" s="42" t="n">
         <v>0</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -1361,9 +1361,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L134" activeCellId="0" sqref="L134"/>
+      <selection pane="bottomLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4713,7 +4713,7 @@
         <v>2002</v>
       </c>
       <c r="E71" s="33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F71" s="34" t="n">
         <v>630000</v>
@@ -4759,7 +4759,7 @@
         <v>2002</v>
       </c>
       <c r="E72" s="37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="34" t="n">
         <v>1512000</v>
@@ -4805,7 +4805,7 @@
         <v>2002</v>
       </c>
       <c r="E73" s="33" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F73" s="34" t="n">
         <v>157500</v>
@@ -5092,8 +5092,8 @@
       <c r="D79" s="17" t="n">
         <v>2004</v>
       </c>
-      <c r="E79" s="15" t="n">
-        <v>4</v>
+      <c r="E79" s="33" t="n">
+        <v>8</v>
       </c>
       <c r="F79" s="52" t="n">
         <v>1880000</v>
@@ -5137,8 +5137,8 @@
       <c r="D80" s="17" t="n">
         <v>2004</v>
       </c>
-      <c r="E80" s="21" t="n">
-        <v>2</v>
+      <c r="E80" s="37" t="n">
+        <v>4</v>
       </c>
       <c r="F80" s="16" t="n">
         <v>4500000</v>
@@ -5465,7 +5465,7 @@
         <v>2005</v>
       </c>
       <c r="E87" s="33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F87" s="34" t="n">
         <v>4000000</v>
@@ -5510,7 +5510,7 @@
         <v>2005</v>
       </c>
       <c r="E88" s="37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" s="34" t="n">
         <v>9600000</v>
@@ -5836,8 +5836,8 @@
       <c r="D95" s="17" t="n">
         <v>2006</v>
       </c>
-      <c r="E95" s="15" t="n">
-        <v>4</v>
+      <c r="E95" s="33" t="n">
+        <v>8</v>
       </c>
       <c r="F95" s="16" t="n">
         <v>8750000</v>
@@ -5881,8 +5881,8 @@
       <c r="D96" s="17" t="n">
         <v>2006</v>
       </c>
-      <c r="E96" s="21" t="n">
-        <v>2</v>
+      <c r="E96" s="37" t="n">
+        <v>4</v>
       </c>
       <c r="F96" s="16" t="n">
         <v>21000000</v>
@@ -6209,7 +6209,7 @@
         <v>2007</v>
       </c>
       <c r="E103" s="33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F103" s="34" t="n">
         <v>20000000</v>
@@ -6254,7 +6254,7 @@
         <v>2007</v>
       </c>
       <c r="E104" s="37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104" s="34" t="n">
         <v>48000000</v>
@@ -6580,8 +6580,8 @@
       <c r="D111" s="17" t="n">
         <v>2008</v>
       </c>
-      <c r="E111" s="15" t="n">
-        <v>4</v>
+      <c r="E111" s="33" t="n">
+        <v>8</v>
       </c>
       <c r="F111" s="16" t="n">
         <v>45000000</v>
@@ -6625,8 +6625,8 @@
       <c r="D112" s="17" t="n">
         <v>2008</v>
       </c>
-      <c r="E112" s="21" t="n">
-        <v>2</v>
+      <c r="E112" s="37" t="n">
+        <v>4</v>
       </c>
       <c r="F112" s="16" t="n">
         <v>108000000</v>
@@ -6953,7 +6953,7 @@
         <v>2009</v>
       </c>
       <c r="E119" s="33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F119" s="34" t="n">
         <v>62500000</v>
@@ -6998,7 +6998,7 @@
         <v>2009</v>
       </c>
       <c r="E120" s="37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F120" s="34" t="n">
         <v>150000000</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -1361,9 +1361,9 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="K70" activeCellId="0" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4647,7 +4647,7 @@
       <c r="K69" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="L69" s="43"/>
+      <c r="L69" s="42"/>
       <c r="M69" s="42"/>
       <c r="N69" s="42" t="s">
         <v>145</v>
@@ -4690,7 +4690,7 @@
       <c r="K70" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="L70" s="43"/>
+      <c r="L70" s="42"/>
       <c r="M70" s="42"/>
       <c r="N70" s="42" t="s">
         <v>145</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF12AAB-DEC3-46C8-9414-22FBEA4F6D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109C806-4C19-4E59-B96F-B55FCF4E370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,8 +1286,8 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
+      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q105" sqref="Q105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1728,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" s="13">
         <v>1.5</v>
@@ -1775,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J11" s="13">
         <v>1.5</v>
@@ -1825,7 +1825,7 @@
         <v>84</v>
       </c>
       <c r="I12" s="14">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="J12" s="13">
         <v>1.5</v>
@@ -2012,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J16" s="13">
         <v>1.5</v>
@@ -2062,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="37">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J17" s="13">
         <v>1.5</v>
@@ -2112,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="32">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J18" s="13">
         <v>1.5</v>
@@ -2160,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="32">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J19" s="13">
         <v>1.5</v>
@@ -2210,7 +2210,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="32">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="J20" s="13">
         <v>1.5</v>
@@ -2347,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="13">
         <v>1.5</v>
@@ -2397,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" s="13">
         <v>1.5</v>
@@ -2497,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="23">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J26" s="13">
         <v>1.5</v>
@@ -2595,7 +2595,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="14">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J28" s="13">
         <v>1.5</v>
@@ -2732,7 +2732,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J31" s="13">
         <v>1.5</v>
@@ -2782,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="32">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J32" s="13">
         <v>1.5</v>
@@ -2832,7 +2832,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="32">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J33" s="13">
         <v>1.5</v>
@@ -2882,7 +2882,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="32">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="J34" s="13">
         <v>1.5</v>
@@ -2979,7 +2979,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="37">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J36" s="13">
         <v>1.5</v>
@@ -3116,7 +3116,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="23">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J39" s="13">
         <v>1.5</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="14">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="J40" s="13">
         <v>1.5</v>
@@ -3216,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="23">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="J41" s="13">
         <v>1.5</v>
@@ -3266,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="I42" s="14">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="J42" s="13">
         <v>1.5</v>
@@ -3314,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="14">
-        <v>800</v>
+        <v>874</v>
       </c>
       <c r="J43" s="13">
         <v>1.5</v>
@@ -3364,7 +3364,7 @@
         <v>85</v>
       </c>
       <c r="I44" s="14">
-        <v>8600</v>
+        <v>1090</v>
       </c>
       <c r="J44" s="13">
         <v>1.5</v>
@@ -3501,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="32">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="J47" s="13">
         <v>1.5</v>
@@ -3551,7 +3551,7 @@
         <v>15</v>
       </c>
       <c r="I48" s="32">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="J48" s="13">
         <v>1.5</v>
@@ -3601,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="32">
-        <v>480</v>
+        <v>630</v>
       </c>
       <c r="J49" s="13">
         <v>1.5</v>
@@ -3651,7 +3651,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="32">
-        <v>800</v>
+        <v>1008</v>
       </c>
       <c r="J50" s="13">
         <v>1.5</v>
@@ -3698,7 +3698,7 @@
         <v>15</v>
       </c>
       <c r="I51" s="32">
-        <v>1350</v>
+        <v>1680</v>
       </c>
       <c r="J51" s="13">
         <v>1.5</v>
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="I52" s="37">
-        <v>11650</v>
+        <v>14400</v>
       </c>
       <c r="J52" s="13">
         <v>1.5</v>
@@ -3885,7 +3885,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="23">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="J55" s="13">
         <v>1.5</v>
@@ -3935,7 +3935,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="14">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="J56" s="13">
         <v>1.5</v>
@@ -3985,7 +3985,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="23">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="J57" s="13">
         <v>1.5</v>
@@ -4035,7 +4035,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="14">
-        <v>1985</v>
+        <v>2160</v>
       </c>
       <c r="J58" s="13">
         <v>1.5</v>
@@ -4083,7 +4083,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="14">
-        <v>3420</v>
+        <v>3600</v>
       </c>
       <c r="J59" s="13">
         <v>1.5</v>
@@ -4133,7 +4133,7 @@
         <v>85</v>
       </c>
       <c r="I60" s="14">
-        <v>14200</v>
+        <v>18000</v>
       </c>
       <c r="J60" s="13">
         <v>1.5</v>
@@ -4270,7 +4270,7 @@
         <v>15</v>
       </c>
       <c r="I63" s="32">
-        <v>415</v>
+        <v>510</v>
       </c>
       <c r="J63" s="13">
         <v>1.5</v>
@@ -4320,7 +4320,7 @@
         <v>15</v>
       </c>
       <c r="I64" s="32">
-        <v>1765</v>
+        <v>2040</v>
       </c>
       <c r="J64" s="13">
         <v>1.5</v>
@@ -4370,7 +4370,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="32">
-        <v>2290</v>
+        <v>3060</v>
       </c>
       <c r="J65" s="13">
         <v>1.5</v>
@@ -4420,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="32">
-        <v>4295</v>
+        <v>4896</v>
       </c>
       <c r="J66" s="13">
         <v>1.5</v>
@@ -4468,7 +4468,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="32">
-        <v>5700</v>
+        <v>8160</v>
       </c>
       <c r="J67" s="13">
         <v>1.5</v>
@@ -4518,7 +4518,7 @@
         <v>100</v>
       </c>
       <c r="I68" s="37">
-        <v>49750</v>
+        <v>81600</v>
       </c>
       <c r="J68" s="13">
         <v>1.5</v>
@@ -4891,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="I76" s="32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J76" s="13">
         <v>1.5</v>
@@ -4939,7 +4939,7 @@
         <v>15</v>
       </c>
       <c r="I77" s="34">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J77" s="13">
         <v>1.5</v>
@@ -4987,7 +4987,7 @@
         <v>85</v>
       </c>
       <c r="I78" s="32">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="J78" s="13">
         <v>1.5</v>
@@ -5131,7 +5131,7 @@
         <v>15</v>
       </c>
       <c r="I81" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J81" s="13">
         <v>1.5</v>
@@ -5151,6 +5151,7 @@
       <c r="O81" s="24">
         <v>3</v>
       </c>
+      <c r="R81" s="34"/>
     </row>
     <row r="82" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="28">
@@ -5178,7 +5179,7 @@
         <v>15</v>
       </c>
       <c r="I82" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J82" s="13">
         <v>1.5</v>
@@ -5198,6 +5199,7 @@
       <c r="O82" s="17">
         <v>4</v>
       </c>
+      <c r="R82" s="34"/>
     </row>
     <row r="83" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="28">
@@ -5225,7 +5227,7 @@
         <v>15</v>
       </c>
       <c r="I83" s="23">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J83" s="13">
         <v>1.5</v>
@@ -5245,6 +5247,7 @@
       <c r="O83" s="17">
         <v>5</v>
       </c>
+      <c r="R83" s="34"/>
     </row>
     <row r="84" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="28">
@@ -5272,7 +5275,7 @@
         <v>15</v>
       </c>
       <c r="I84" s="14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J84" s="13">
         <v>1.5</v>
@@ -5292,6 +5295,7 @@
       <c r="O84" s="17">
         <v>6</v>
       </c>
+      <c r="R84" s="34"/>
     </row>
     <row r="85" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="28">
@@ -5319,7 +5323,7 @@
         <v>15</v>
       </c>
       <c r="I85" s="14">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="J85" s="13">
         <v>1.5</v>
@@ -5339,6 +5343,7 @@
       <c r="O85" s="17">
         <v>7</v>
       </c>
+      <c r="R85" s="34"/>
     </row>
     <row r="86" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="28">
@@ -5366,7 +5371,7 @@
         <v>85</v>
       </c>
       <c r="I86" s="14">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="J86" s="13">
         <v>1.5</v>
@@ -5386,6 +5391,7 @@
       <c r="O86" s="24">
         <v>8</v>
       </c>
+      <c r="R86" s="34"/>
     </row>
     <row r="87" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="28">
@@ -5511,7 +5517,7 @@
         <v>15</v>
       </c>
       <c r="I89" s="32">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J89" s="13">
         <v>1.5</v>
@@ -5558,7 +5564,7 @@
         <v>15</v>
       </c>
       <c r="I90" s="32">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J90" s="13">
         <v>1.5</v>
@@ -5605,7 +5611,7 @@
         <v>15</v>
       </c>
       <c r="I91" s="32">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="J91" s="13">
         <v>1.5</v>
@@ -5652,7 +5658,7 @@
         <v>15</v>
       </c>
       <c r="I92" s="37">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="J92" s="13">
         <v>1.5</v>
@@ -5699,7 +5705,7 @@
         <v>15</v>
       </c>
       <c r="I93" s="32">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="J93" s="13">
         <v>1.5</v>
@@ -5746,7 +5752,7 @@
         <v>85</v>
       </c>
       <c r="I94" s="32">
-        <v>2800</v>
+        <v>1522</v>
       </c>
       <c r="J94" s="13">
         <v>1.5</v>
@@ -5889,7 +5895,7 @@
         <v>15</v>
       </c>
       <c r="I97" s="14">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J97" s="13">
         <v>1.5</v>
@@ -5909,6 +5915,7 @@
       <c r="O97" s="24">
         <v>3</v>
       </c>
+      <c r="R97" s="34"/>
     </row>
     <row r="98" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="28">
@@ -5936,7 +5943,7 @@
         <v>15</v>
       </c>
       <c r="I98" s="14">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J98" s="13">
         <v>1.5</v>
@@ -5956,6 +5963,7 @@
       <c r="O98" s="17">
         <v>4</v>
       </c>
+      <c r="R98" s="34"/>
     </row>
     <row r="99" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="28">
@@ -5983,7 +5991,7 @@
         <v>15</v>
       </c>
       <c r="I99" s="14">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="J99" s="13">
         <v>1.5</v>
@@ -6003,6 +6011,7 @@
       <c r="O99" s="17">
         <v>5</v>
       </c>
+      <c r="R99" s="34"/>
     </row>
     <row r="100" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="28">
@@ -6030,7 +6039,7 @@
         <v>15</v>
       </c>
       <c r="I100" s="14">
-        <v>450</v>
+        <v>177</v>
       </c>
       <c r="J100" s="13">
         <v>1.5</v>
@@ -6050,6 +6059,7 @@
       <c r="O100" s="17">
         <v>6</v>
       </c>
+      <c r="R100" s="34"/>
     </row>
     <row r="101" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="28">
@@ -6077,7 +6087,7 @@
         <v>15</v>
       </c>
       <c r="I101" s="14">
-        <v>600</v>
+        <v>295</v>
       </c>
       <c r="J101" s="13">
         <v>1.5</v>
@@ -6097,6 +6107,7 @@
       <c r="O101" s="17">
         <v>7</v>
       </c>
+      <c r="R101" s="34"/>
     </row>
     <row r="102" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="28">
@@ -6115,7 +6126,7 @@
         <v>4</v>
       </c>
       <c r="F102" s="14">
-        <v>175000000</v>
+        <v>275000000</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>124</v>
@@ -6124,7 +6135,7 @@
         <v>90</v>
       </c>
       <c r="I102" s="14">
-        <v>5120</v>
+        <v>2323</v>
       </c>
       <c r="J102" s="13">
         <v>1.5</v>
@@ -6144,6 +6155,7 @@
       <c r="O102" s="24">
         <v>8</v>
       </c>
+      <c r="R102" s="34"/>
     </row>
     <row r="103" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="28">
@@ -6269,7 +6281,7 @@
         <v>15</v>
       </c>
       <c r="I105" s="32">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J105" s="13">
         <v>1.5</v>
@@ -6289,6 +6301,7 @@
       <c r="O105" s="38">
         <v>3</v>
       </c>
+      <c r="S105" s="17"/>
     </row>
     <row r="106" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="28">
@@ -6316,7 +6329,7 @@
         <v>15</v>
       </c>
       <c r="I106" s="32">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="J106" s="13">
         <v>1.5</v>
@@ -6336,6 +6349,7 @@
       <c r="O106" s="34">
         <v>4</v>
       </c>
+      <c r="S106" s="17"/>
     </row>
     <row r="107" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="28">
@@ -6363,7 +6377,7 @@
         <v>15</v>
       </c>
       <c r="I107" s="32">
-        <v>440</v>
+        <v>278</v>
       </c>
       <c r="J107" s="13">
         <v>1.5</v>
@@ -6383,6 +6397,7 @@
       <c r="O107" s="34">
         <v>5</v>
       </c>
+      <c r="S107" s="17"/>
     </row>
     <row r="108" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="28">
@@ -6410,7 +6425,7 @@
         <v>15</v>
       </c>
       <c r="I108" s="32">
-        <v>1000</v>
+        <v>446</v>
       </c>
       <c r="J108" s="13">
         <v>1.5</v>
@@ -6430,6 +6445,7 @@
       <c r="O108" s="34">
         <v>6</v>
       </c>
+      <c r="S108" s="17"/>
     </row>
     <row r="109" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="28">
@@ -6457,7 +6473,7 @@
         <v>15</v>
       </c>
       <c r="I109" s="32">
-        <v>1200</v>
+        <v>743</v>
       </c>
       <c r="J109" s="13">
         <v>1.5</v>
@@ -6477,6 +6493,7 @@
       <c r="O109" s="34">
         <v>7</v>
       </c>
+      <c r="S109" s="17"/>
     </row>
     <row r="110" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="28">
@@ -6495,7 +6512,7 @@
         <v>4</v>
       </c>
       <c r="F110" s="32">
-        <v>140000000</v>
+        <v>340000000</v>
       </c>
       <c r="G110" s="30" t="s">
         <v>124</v>
@@ -6504,7 +6521,7 @@
         <v>85</v>
       </c>
       <c r="I110" s="32">
-        <v>16000</v>
+        <v>3160</v>
       </c>
       <c r="J110" s="13">
         <v>1.5</v>
@@ -6524,6 +6541,7 @@
       <c r="O110" s="38">
         <v>8</v>
       </c>
+      <c r="S110" s="17"/>
     </row>
     <row r="111" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28">
@@ -6647,7 +6665,7 @@
         <v>15</v>
       </c>
       <c r="I113" s="14">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="J113" s="13">
         <v>1.5</v>
@@ -6667,6 +6685,7 @@
       <c r="O113" s="24">
         <v>3</v>
       </c>
+      <c r="R113" s="34"/>
     </row>
     <row r="114" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="28">
@@ -6694,7 +6713,7 @@
         <v>15</v>
       </c>
       <c r="I114" s="14">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="J114" s="13">
         <v>1.5</v>
@@ -6714,6 +6733,7 @@
       <c r="O114" s="17">
         <v>4</v>
       </c>
+      <c r="R114" s="34"/>
     </row>
     <row r="115" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="28">
@@ -6741,7 +6761,7 @@
         <v>15</v>
       </c>
       <c r="I115" s="14">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="J115" s="13">
         <v>1.5</v>
@@ -6761,6 +6781,7 @@
       <c r="O115" s="17">
         <v>5</v>
       </c>
+      <c r="R115" s="34"/>
     </row>
     <row r="116" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="28">
@@ -6788,7 +6809,7 @@
         <v>15</v>
       </c>
       <c r="I116" s="14">
-        <v>1595</v>
+        <v>1840</v>
       </c>
       <c r="J116" s="13">
         <v>1.5</v>
@@ -6808,6 +6829,7 @@
       <c r="O116" s="17">
         <v>6</v>
       </c>
+      <c r="R116" s="34"/>
     </row>
     <row r="117" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="28">
@@ -6835,7 +6857,7 @@
         <v>15</v>
       </c>
       <c r="I117" s="14">
-        <v>2020</v>
+        <v>9202</v>
       </c>
       <c r="J117" s="13">
         <v>1.5</v>
@@ -6855,6 +6877,7 @@
       <c r="O117" s="17">
         <v>7</v>
       </c>
+      <c r="R117" s="34"/>
     </row>
     <row r="118" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="28">
@@ -6882,7 +6905,7 @@
         <v>85</v>
       </c>
       <c r="I118" s="14">
-        <v>8650</v>
+        <v>23007</v>
       </c>
       <c r="J118" s="13">
         <v>1.5</v>
@@ -6902,6 +6925,7 @@
       <c r="O118" s="24">
         <v>8</v>
       </c>
+      <c r="R118" s="34"/>
     </row>
     <row r="119" spans="1:21" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="28">
@@ -7027,7 +7051,7 @@
         <v>15</v>
       </c>
       <c r="I121" s="32">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="J121" s="13">
         <v>1.5</v>
@@ -7047,6 +7071,7 @@
       <c r="O121" s="38">
         <v>3</v>
       </c>
+      <c r="S121" s="17"/>
     </row>
     <row r="122" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A122" s="28">
@@ -7074,7 +7099,7 @@
         <v>15</v>
       </c>
       <c r="I122" s="32">
-        <v>460</v>
+        <v>703</v>
       </c>
       <c r="J122" s="13">
         <v>1.5</v>
@@ -7094,6 +7119,7 @@
       <c r="O122" s="34">
         <v>4</v>
       </c>
+      <c r="S122" s="17"/>
     </row>
     <row r="123" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A123" s="28">
@@ -7121,7 +7147,7 @@
         <v>15</v>
       </c>
       <c r="I123" s="32">
-        <v>1240</v>
+        <v>1054</v>
       </c>
       <c r="J123" s="13">
         <v>1.5</v>
@@ -7141,6 +7167,7 @@
       <c r="O123" s="34">
         <v>5</v>
       </c>
+      <c r="S123" s="17"/>
     </row>
     <row r="124" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A124" s="28">
@@ -7168,7 +7195,7 @@
         <v>15</v>
       </c>
       <c r="I124" s="32">
-        <v>2585</v>
+        <v>1687</v>
       </c>
       <c r="J124" s="13">
         <v>1.5</v>
@@ -7188,6 +7215,7 @@
       <c r="O124" s="34">
         <v>6</v>
       </c>
+      <c r="S124" s="17"/>
     </row>
     <row r="125" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A125" s="28">
@@ -7215,7 +7243,7 @@
         <v>15</v>
       </c>
       <c r="I125" s="32">
-        <v>3420</v>
+        <v>2812</v>
       </c>
       <c r="J125" s="13">
         <v>1.5</v>
@@ -7235,6 +7263,7 @@
       <c r="O125" s="34">
         <v>7</v>
       </c>
+      <c r="S125" s="17"/>
     </row>
     <row r="126" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A126" s="28">
@@ -7262,7 +7291,7 @@
         <v>85</v>
       </c>
       <c r="I126" s="32">
-        <v>10200</v>
+        <v>35093</v>
       </c>
       <c r="J126" s="13">
         <v>1.5</v>
@@ -7282,6 +7311,7 @@
       <c r="O126" s="38">
         <v>8</v>
       </c>
+      <c r="S126" s="17"/>
     </row>
     <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="28">

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109C806-4C19-4E59-B96F-B55FCF4E370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A795E3-EAFD-4C98-A9CF-1F00102A2892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1286,8 +1286,8 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q105" sqref="Q105"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1307,9 +1307,7 @@
     <col min="15" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="25" max="27" width="12.5" customWidth="1"/>
-    <col min="1008" max="1024" width="11" customWidth="1"/>
+    <col min="998" max="1014" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1480,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="14">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
       </c>
       <c r="H5" s="14">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="13">
@@ -1525,13 +1523,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="20">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="19">
         <v>2</v>
       </c>
       <c r="H6" s="20">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J6" s="13">
         <v>1.5</v>
@@ -1578,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="13">
         <v>1.5</v>
@@ -1628,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="13">
         <v>1.5</v>
@@ -1678,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="13">
         <v>1.5</v>
@@ -1728,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" s="13">
         <v>1.5</v>
@@ -1775,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="17">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J11" s="13">
         <v>1.5</v>
@@ -1825,7 +1823,7 @@
         <v>84</v>
       </c>
       <c r="I12" s="14">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="J12" s="13">
         <v>1.5</v>
@@ -1869,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="28">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="13">
@@ -1908,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="F14" s="32">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G14" s="28">
         <v>2</v>
       </c>
       <c r="H14" s="28">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="13">
@@ -1962,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="13">
         <v>1.5</v>
@@ -2012,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J16" s="13">
         <v>1.5</v>
@@ -2062,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="37">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J17" s="13">
         <v>1.5</v>
@@ -2112,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="32">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J18" s="13">
         <v>1.5</v>
@@ -2160,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="32">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="J19" s="13">
         <v>1.5</v>
@@ -2210,7 +2208,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="32">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J20" s="13">
         <v>1.5</v>
@@ -2254,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="10">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="13">
@@ -2293,13 +2291,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="14">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
       </c>
       <c r="H22" s="10">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="13">
@@ -2347,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J23" s="13">
         <v>1.5</v>
@@ -2397,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="14">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J24" s="13">
         <v>1.5</v>
@@ -2447,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="14">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J25" s="13">
         <v>1.5</v>
@@ -2497,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="23">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="J26" s="13">
         <v>1.5</v>
@@ -2545,7 +2543,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="14">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="J27" s="13">
         <v>1.5</v>
@@ -2595,7 +2593,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="14">
-        <v>2400</v>
+        <v>2880</v>
       </c>
       <c r="J28" s="13">
         <v>1.5</v>
@@ -2639,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="28">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="13">
@@ -2678,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="F30" s="32">
-        <v>16000</v>
+        <v>19200</v>
       </c>
       <c r="G30" s="28">
         <v>2</v>
       </c>
       <c r="H30" s="28">
-        <v>400</v>
+        <v>287</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="13">
@@ -2732,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J31" s="13">
         <v>1.5</v>
@@ -2782,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="32">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="J32" s="13">
         <v>1.5</v>
@@ -2832,7 +2830,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="32">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="J33" s="13">
         <v>1.5</v>
@@ -2882,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="32">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="J34" s="13">
         <v>1.5</v>
@@ -2929,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="I35" s="32">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="J35" s="13">
         <v>1.5</v>
@@ -2979,7 +2977,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="37">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="J36" s="13">
         <v>1.5</v>
@@ -3023,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="10">
-        <v>420</v>
+        <v>287</v>
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="13">
@@ -3068,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="10">
-        <v>800</v>
+        <v>603</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="13">
@@ -3116,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="23">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J39" s="13">
         <v>1.5</v>
@@ -3166,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="14">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="J40" s="13">
         <v>1.5</v>
@@ -3216,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="23">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="J41" s="13">
         <v>1.5</v>
@@ -3266,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="I42" s="14">
-        <v>524</v>
+        <v>629</v>
       </c>
       <c r="J42" s="13">
         <v>1.5</v>
@@ -3314,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="14">
-        <v>874</v>
+        <v>1049</v>
       </c>
       <c r="J43" s="13">
         <v>1.5</v>
@@ -3364,7 +3362,7 @@
         <v>85</v>
       </c>
       <c r="I44" s="14">
-        <v>1090</v>
+        <v>1308</v>
       </c>
       <c r="J44" s="13">
         <v>1.5</v>
@@ -3408,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="28">
-        <v>720</v>
+        <v>533</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="13">
@@ -3447,13 +3445,13 @@
         <v>4</v>
       </c>
       <c r="F46" s="32">
-        <v>80000</v>
+        <v>84000</v>
       </c>
       <c r="G46" s="28">
         <v>2</v>
       </c>
       <c r="H46" s="28">
-        <v>1350</v>
+        <v>1278</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="13">
@@ -3501,7 +3499,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="32">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="J47" s="13">
         <v>1.5</v>
@@ -3551,7 +3549,7 @@
         <v>15</v>
       </c>
       <c r="I48" s="32">
-        <v>420</v>
+        <v>504</v>
       </c>
       <c r="J48" s="13">
         <v>1.5</v>
@@ -3601,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="32">
-        <v>630</v>
+        <v>756</v>
       </c>
       <c r="J49" s="13">
         <v>1.5</v>
@@ -3651,7 +3649,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="32">
-        <v>1008</v>
+        <v>1210</v>
       </c>
       <c r="J50" s="13">
         <v>1.5</v>
@@ -3698,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="I51" s="32">
-        <v>1680</v>
+        <v>2016</v>
       </c>
       <c r="J51" s="13">
         <v>1.5</v>
@@ -3748,7 +3746,7 @@
         <v>85</v>
       </c>
       <c r="I52" s="37">
-        <v>14400</v>
+        <v>17280</v>
       </c>
       <c r="J52" s="13">
         <v>1.5</v>
@@ -3792,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="10">
-        <v>1200</v>
+        <v>1152</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="13">
@@ -3831,13 +3829,13 @@
         <v>4</v>
       </c>
       <c r="F54" s="14">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="G54" s="10">
         <v>2</v>
       </c>
       <c r="H54" s="10">
-        <v>2400</v>
+        <v>2768</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="13">
@@ -3885,7 +3883,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="23">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="J55" s="13">
         <v>1.5</v>
@@ -3935,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="14">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="J56" s="13">
         <v>1.5</v>
@@ -3985,7 +3983,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="23">
-        <v>1350</v>
+        <v>1620</v>
       </c>
       <c r="J57" s="13">
         <v>1.5</v>
@@ -4035,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="14">
-        <v>2160</v>
+        <v>2592</v>
       </c>
       <c r="J58" s="13">
         <v>1.5</v>
@@ -4083,7 +4081,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="14">
-        <v>3600</v>
+        <v>4320</v>
       </c>
       <c r="J59" s="13">
         <v>1.5</v>
@@ -4133,7 +4131,7 @@
         <v>85</v>
       </c>
       <c r="I60" s="14">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="J60" s="13">
         <v>1.5</v>
@@ -4177,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="28">
-        <v>2200</v>
+        <v>2640</v>
       </c>
       <c r="I61" s="32"/>
       <c r="J61" s="13">
@@ -4216,13 +4214,13 @@
         <v>4</v>
       </c>
       <c r="F62" s="32">
-        <v>400000</v>
+        <v>408000</v>
       </c>
       <c r="G62" s="28">
         <v>2</v>
       </c>
       <c r="H62" s="28">
-        <v>3600</v>
+        <v>6336</v>
       </c>
       <c r="I62" s="32"/>
       <c r="J62" s="13">
@@ -4270,7 +4268,7 @@
         <v>15</v>
       </c>
       <c r="I63" s="32">
-        <v>510</v>
+        <v>612</v>
       </c>
       <c r="J63" s="13">
         <v>1.5</v>
@@ -4320,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="I64" s="32">
-        <v>2040</v>
+        <v>2448</v>
       </c>
       <c r="J64" s="13">
         <v>1.5</v>
@@ -4370,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="32">
-        <v>3060</v>
+        <v>3672</v>
       </c>
       <c r="J65" s="13">
         <v>1.5</v>
@@ -4420,7 +4418,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="32">
-        <v>4896</v>
+        <v>5876</v>
       </c>
       <c r="J66" s="13">
         <v>1.5</v>
@@ -4468,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="32">
-        <v>8160</v>
+        <v>9792</v>
       </c>
       <c r="J67" s="13">
         <v>1.5</v>
@@ -4518,7 +4516,7 @@
         <v>100</v>
       </c>
       <c r="I68" s="37">
-        <v>81600</v>
+        <v>97920</v>
       </c>
       <c r="J68" s="13">
         <v>1.5</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A795E3-EAFD-4C98-A9CF-1F00102A2892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABD867-4BC9-4962-8A18-3CF58B94BA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1307,7 +1307,7 @@
     <col min="15" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="11" customWidth="1"/>
-    <col min="998" max="1014" width="11" customWidth="1"/>
+    <col min="995" max="1011" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1626,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="13">
         <v>1.5</v>
@@ -1676,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="13">
         <v>1.5</v>
@@ -1726,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" s="13">
         <v>1.5</v>
@@ -1773,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="17">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J11" s="13">
         <v>1.5</v>
@@ -1823,7 +1823,7 @@
         <v>84</v>
       </c>
       <c r="I12" s="14">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="J12" s="13">
         <v>1.5</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="13">
         <v>1.5</v>
@@ -2010,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="32">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J16" s="13">
         <v>1.5</v>
@@ -2060,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="37">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J17" s="13">
         <v>1.5</v>
@@ -2110,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="32">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="J18" s="13">
         <v>1.5</v>
@@ -2158,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="32">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="J19" s="13">
         <v>1.5</v>
@@ -2208,7 +2208,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="32">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J20" s="13">
         <v>1.5</v>
@@ -2345,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J23" s="13">
         <v>1.5</v>
@@ -2395,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="14">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J24" s="13">
         <v>1.5</v>
@@ -2445,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="14">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J25" s="13">
         <v>1.5</v>
@@ -2495,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="23">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="J26" s="13">
         <v>1.5</v>
@@ -2543,7 +2543,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="14">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="J27" s="13">
         <v>1.5</v>
@@ -2593,7 +2593,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="14">
-        <v>2880</v>
+        <v>3456</v>
       </c>
       <c r="J28" s="13">
         <v>1.5</v>
@@ -2730,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="32">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J31" s="13">
         <v>1.5</v>
@@ -2780,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="32">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="J32" s="13">
         <v>1.5</v>
@@ -2830,7 +2830,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="32">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="J33" s="13">
         <v>1.5</v>
@@ -2880,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="32">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="J34" s="13">
         <v>1.5</v>
@@ -2927,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="I35" s="32">
-        <v>420</v>
+        <v>504</v>
       </c>
       <c r="J35" s="13">
         <v>1.5</v>
@@ -2977,7 +2977,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="37">
-        <v>5280</v>
+        <v>6336</v>
       </c>
       <c r="J36" s="13">
         <v>1.5</v>
@@ -3114,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="23">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="J39" s="13">
         <v>1.5</v>
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="14">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="J40" s="13">
         <v>1.5</v>
@@ -3214,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="23">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="J41" s="13">
         <v>1.5</v>
@@ -3264,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="I42" s="14">
-        <v>629</v>
+        <v>755</v>
       </c>
       <c r="J42" s="13">
         <v>1.5</v>
@@ -3312,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="14">
-        <v>1049</v>
+        <v>1259</v>
       </c>
       <c r="J43" s="13">
         <v>1.5</v>
@@ -3362,7 +3362,7 @@
         <v>85</v>
       </c>
       <c r="I44" s="14">
-        <v>1308</v>
+        <v>1570</v>
       </c>
       <c r="J44" s="13">
         <v>1.5</v>
@@ -3499,7 +3499,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="32">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="J47" s="13">
         <v>1.5</v>
@@ -3549,7 +3549,7 @@
         <v>15</v>
       </c>
       <c r="I48" s="32">
-        <v>504</v>
+        <v>605</v>
       </c>
       <c r="J48" s="13">
         <v>1.5</v>
@@ -3599,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="32">
-        <v>756</v>
+        <v>908</v>
       </c>
       <c r="J49" s="13">
         <v>1.5</v>
@@ -3649,7 +3649,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="32">
-        <v>1210</v>
+        <v>1452</v>
       </c>
       <c r="J50" s="13">
         <v>1.5</v>
@@ -3696,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="I51" s="32">
-        <v>2016</v>
+        <v>2420</v>
       </c>
       <c r="J51" s="13">
         <v>1.5</v>
@@ -3746,7 +3746,7 @@
         <v>85</v>
       </c>
       <c r="I52" s="37">
-        <v>17280</v>
+        <v>20736</v>
       </c>
       <c r="J52" s="13">
         <v>1.5</v>
@@ -3883,7 +3883,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="23">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="J55" s="13">
         <v>1.5</v>
@@ -3933,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="14">
-        <v>1080</v>
+        <v>1296</v>
       </c>
       <c r="J56" s="13">
         <v>1.5</v>
@@ -3983,7 +3983,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="23">
-        <v>1620</v>
+        <v>1944</v>
       </c>
       <c r="J57" s="13">
         <v>1.5</v>
@@ -4033,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="14">
-        <v>2592</v>
+        <v>3111</v>
       </c>
       <c r="J58" s="13">
         <v>1.5</v>
@@ -4081,7 +4081,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="14">
-        <v>4320</v>
+        <v>5184</v>
       </c>
       <c r="J59" s="13">
         <v>1.5</v>
@@ -4131,7 +4131,7 @@
         <v>85</v>
       </c>
       <c r="I60" s="14">
-        <v>21600</v>
+        <v>25920</v>
       </c>
       <c r="J60" s="13">
         <v>1.5</v>
@@ -4268,7 +4268,7 @@
         <v>15</v>
       </c>
       <c r="I63" s="32">
-        <v>612</v>
+        <v>735</v>
       </c>
       <c r="J63" s="13">
         <v>1.5</v>
@@ -4318,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="I64" s="32">
-        <v>2448</v>
+        <v>2938</v>
       </c>
       <c r="J64" s="13">
         <v>1.5</v>
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="32">
-        <v>3672</v>
+        <v>4407</v>
       </c>
       <c r="J65" s="13">
         <v>1.5</v>
@@ -4418,7 +4418,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="32">
-        <v>5876</v>
+        <v>7052</v>
       </c>
       <c r="J66" s="13">
         <v>1.5</v>
@@ -4466,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="32">
-        <v>9792</v>
+        <v>11751</v>
       </c>
       <c r="J67" s="13">
         <v>1.5</v>
@@ -4516,7 +4516,7 @@
         <v>100</v>
       </c>
       <c r="I68" s="37">
-        <v>97920</v>
+        <v>117504</v>
       </c>
       <c r="J68" s="13">
         <v>1.5</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EABD867-4BC9-4962-8A18-3CF58B94BA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB6FBE5-9B57-4C56-B9D7-5C96F645C81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1307,7 +1307,7 @@
     <col min="15" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="11" customWidth="1"/>
-    <col min="995" max="1011" width="11" customWidth="1"/>
+    <col min="991" max="1007" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1626,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="13">
         <v>1.5</v>
@@ -1676,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" s="13">
         <v>1.5</v>
@@ -1726,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="13">
         <v>1.5</v>
@@ -1773,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J11" s="13">
         <v>1.5</v>
@@ -1823,7 +1823,7 @@
         <v>84</v>
       </c>
       <c r="I12" s="14">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="J12" s="13">
         <v>1.5</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="13">
         <v>1.5</v>
@@ -2009,8 +2009,8 @@
       <c r="H16" s="28">
         <v>15</v>
       </c>
-      <c r="I16" s="32">
-        <v>29</v>
+      <c r="I16" s="34">
+        <v>35</v>
       </c>
       <c r="J16" s="13">
         <v>1.5</v>
@@ -2059,8 +2059,8 @@
       <c r="H17" s="28">
         <v>15</v>
       </c>
-      <c r="I17" s="37">
-        <v>70</v>
+      <c r="I17" s="34">
+        <v>84</v>
       </c>
       <c r="J17" s="13">
         <v>1.5</v>
@@ -2110,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="32">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="J18" s="13">
         <v>1.5</v>
@@ -2158,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="32">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="J19" s="13">
         <v>1.5</v>
@@ -2208,7 +2208,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="32">
-        <v>58</v>
+        <v>692</v>
       </c>
       <c r="J20" s="13">
         <v>1.5</v>
@@ -2345,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J23" s="13">
         <v>1.5</v>
@@ -2395,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="14">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J24" s="13">
         <v>1.5</v>
@@ -2445,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="I25" s="14">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J25" s="13">
         <v>1.5</v>
@@ -2495,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="23">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="J26" s="13">
         <v>1.5</v>
@@ -2543,7 +2543,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="14">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="J27" s="13">
         <v>1.5</v>
@@ -2593,7 +2593,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="14">
-        <v>3456</v>
+        <v>4147</v>
       </c>
       <c r="J28" s="13">
         <v>1.5</v>
@@ -2730,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="32">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J31" s="13">
         <v>1.5</v>
@@ -2780,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="32">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="J32" s="13">
         <v>1.5</v>
@@ -2830,7 +2830,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="32">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="J33" s="13">
         <v>1.5</v>
@@ -2880,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="32">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="J34" s="13">
         <v>1.5</v>
@@ -2927,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="I35" s="32">
-        <v>504</v>
+        <v>605</v>
       </c>
       <c r="J35" s="13">
         <v>1.5</v>
@@ -2977,7 +2977,7 @@
         <v>90</v>
       </c>
       <c r="I36" s="37">
-        <v>6336</v>
+        <v>7604</v>
       </c>
       <c r="J36" s="13">
         <v>1.5</v>
@@ -3114,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="I39" s="23">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="J39" s="13">
         <v>1.5</v>
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="I40" s="14">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="J40" s="13">
         <v>1.5</v>
@@ -3214,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="I41" s="23">
-        <v>472</v>
+        <v>567</v>
       </c>
       <c r="J41" s="13">
         <v>1.5</v>
@@ -3264,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="I42" s="14">
-        <v>755</v>
+        <v>906</v>
       </c>
       <c r="J42" s="13">
         <v>1.5</v>
@@ -3312,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="14">
-        <v>1259</v>
+        <v>1511</v>
       </c>
       <c r="J43" s="13">
         <v>1.5</v>
@@ -3362,7 +3362,7 @@
         <v>85</v>
       </c>
       <c r="I44" s="14">
-        <v>1570</v>
+        <v>1884</v>
       </c>
       <c r="J44" s="13">
         <v>1.5</v>
@@ -3498,8 +3498,8 @@
       <c r="H47" s="28">
         <v>15</v>
       </c>
-      <c r="I47" s="32">
-        <v>152</v>
+      <c r="I47" s="34">
+        <v>182</v>
       </c>
       <c r="J47" s="13">
         <v>1.5</v>
@@ -3548,8 +3548,8 @@
       <c r="H48" s="28">
         <v>15</v>
       </c>
-      <c r="I48" s="32">
-        <v>605</v>
+      <c r="I48" s="34">
+        <v>726</v>
       </c>
       <c r="J48" s="13">
         <v>1.5</v>
@@ -3598,8 +3598,8 @@
       <c r="H49" s="28">
         <v>15</v>
       </c>
-      <c r="I49" s="32">
-        <v>908</v>
+      <c r="I49" s="34">
+        <v>1090</v>
       </c>
       <c r="J49" s="13">
         <v>1.5</v>
@@ -3648,8 +3648,8 @@
       <c r="H50" s="28">
         <v>15</v>
       </c>
-      <c r="I50" s="32">
-        <v>1452</v>
+      <c r="I50" s="34">
+        <v>1743</v>
       </c>
       <c r="J50" s="13">
         <v>1.5</v>
@@ -3695,8 +3695,8 @@
       <c r="H51" s="28">
         <v>15</v>
       </c>
-      <c r="I51" s="32">
-        <v>2420</v>
+      <c r="I51" s="34">
+        <v>2904</v>
       </c>
       <c r="J51" s="13">
         <v>1.5</v>
@@ -3745,8 +3745,8 @@
       <c r="H52" s="28">
         <v>85</v>
       </c>
-      <c r="I52" s="37">
-        <v>20736</v>
+      <c r="I52" s="34">
+        <v>24884</v>
       </c>
       <c r="J52" s="13">
         <v>1.5</v>
@@ -3883,7 +3883,7 @@
         <v>15</v>
       </c>
       <c r="I55" s="23">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="J55" s="13">
         <v>1.5</v>
@@ -3933,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="14">
-        <v>1296</v>
+        <v>1556</v>
       </c>
       <c r="J56" s="13">
         <v>1.5</v>
@@ -3983,7 +3983,7 @@
         <v>15</v>
       </c>
       <c r="I57" s="23">
-        <v>1944</v>
+        <v>2333</v>
       </c>
       <c r="J57" s="13">
         <v>1.5</v>
@@ -4033,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="I58" s="14">
-        <v>3111</v>
+        <v>3734</v>
       </c>
       <c r="J58" s="13">
         <v>1.5</v>
@@ -4081,7 +4081,7 @@
         <v>15</v>
       </c>
       <c r="I59" s="14">
-        <v>5184</v>
+        <v>6221</v>
       </c>
       <c r="J59" s="13">
         <v>1.5</v>
@@ -4131,7 +4131,7 @@
         <v>85</v>
       </c>
       <c r="I60" s="14">
-        <v>25920</v>
+        <v>31104</v>
       </c>
       <c r="J60" s="13">
         <v>1.5</v>
@@ -4268,7 +4268,7 @@
         <v>15</v>
       </c>
       <c r="I63" s="32">
-        <v>735</v>
+        <v>882</v>
       </c>
       <c r="J63" s="13">
         <v>1.5</v>
@@ -4318,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="I64" s="32">
-        <v>2938</v>
+        <v>3526</v>
       </c>
       <c r="J64" s="13">
         <v>1.5</v>
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="32">
-        <v>4407</v>
+        <v>5289</v>
       </c>
       <c r="J65" s="13">
         <v>1.5</v>
@@ -4418,7 +4418,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="32">
-        <v>7052</v>
+        <v>8463</v>
       </c>
       <c r="J66" s="13">
         <v>1.5</v>
@@ -4466,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="32">
-        <v>11751</v>
+        <v>14102</v>
       </c>
       <c r="J67" s="13">
         <v>1.5</v>
@@ -4516,7 +4516,7 @@
         <v>100</v>
       </c>
       <c r="I68" s="37">
-        <v>117504</v>
+        <v>141005</v>
       </c>
       <c r="J68" s="13">
         <v>1.5</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -195,7 +195,7 @@
     <t xml:space="preserve">金币4</t>
   </si>
   <si>
-    <t xml:space="preserve">1FCF576C4A5031D9B3E87BA9D1C7A04A</t>
+    <t xml:space="preserve">C2C4639B48412430590BE1977AC37D35</t>
   </si>
   <si>
     <t xml:space="preserve">3|30</t>
@@ -1343,9 +1343,9 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -195,7 +195,7 @@
     <t xml:space="preserve">金币4</t>
   </si>
   <si>
-    <t xml:space="preserve">1FCF576C4A5031D9B3E87BA9D1C7A04A</t>
+    <t xml:space="preserve">AF77EB51453E2ADC4DB5B3B7D4E8A349</t>
   </si>
   <si>
     <t xml:space="preserve">3|30</t>
@@ -1343,9 +1343,9 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A54B33E-05D8-42EB-A8F3-5F31D5B5A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E83856-4B7D-457B-9CA0-06F26DC70B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,17 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -1256,11 +1265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U131"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1279,8 +1288,8 @@
     <col min="14" max="14" width="11" style="2" customWidth="1"/>
     <col min="15" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="18" max="23" width="11" customWidth="1"/>
-    <col min="989" max="1005" width="11" customWidth="1"/>
+    <col min="18" max="22" width="11" customWidth="1"/>
+    <col min="986" max="1002" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1540,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="14">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>47</v>
@@ -1590,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>47</v>
@@ -1640,7 +1649,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="26">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>47</v>
@@ -1690,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="14">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>47</v>
@@ -1737,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="14">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>47</v>
@@ -1787,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="14">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>47</v>
@@ -1924,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="32">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>47</v>
@@ -1974,7 +1983,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="37">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>47</v>
@@ -2024,7 +2033,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="32">
-        <v>4800</v>
+        <v>3840</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>47</v>
@@ -2074,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="32">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>47</v>
@@ -2122,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="32">
-        <v>14000</v>
+        <v>11200</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>47</v>
@@ -2172,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="32">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>47</v>
@@ -2309,7 +2318,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="14">
-        <v>1120</v>
+        <v>896</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>47</v>
@@ -2359,7 +2368,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="14">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>47</v>
@@ -2409,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="26">
-        <v>6750</v>
+        <v>5400</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>47</v>
@@ -2459,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="14">
-        <v>10800</v>
+        <v>8640</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>47</v>
@@ -2507,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="14">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>47</v>
@@ -2557,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="14">
-        <v>225000</v>
+        <v>180000</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>47</v>
@@ -2694,7 +2703,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="32">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>47</v>
@@ -2744,7 +2753,7 @@
         <v>22</v>
       </c>
       <c r="F32" s="32">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>47</v>
@@ -2794,7 +2803,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="32">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>47</v>
@@ -2844,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="32">
-        <v>19200</v>
+        <v>15360</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>47</v>
@@ -2891,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="32">
-        <v>32000</v>
+        <v>25600</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>47</v>
@@ -2941,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="32">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>47</v>
@@ -3078,7 +3087,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="14">
-        <v>4750</v>
+        <v>3800</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>47</v>
@@ -3126,7 +3135,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="14">
-        <v>19000</v>
+        <v>15200</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>47</v>
@@ -3174,7 +3183,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="14">
-        <v>28500</v>
+        <v>22800</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>47</v>
@@ -3222,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="14">
-        <v>45600</v>
+        <v>36480</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>47</v>
@@ -3270,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="14">
-        <v>76000</v>
+        <v>60800</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>47</v>
@@ -3318,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="14">
-        <v>950000</v>
+        <v>760000</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>47</v>
@@ -3455,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="32">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>47</v>
@@ -3502,7 +3511,7 @@
         <v>22</v>
       </c>
       <c r="F48" s="32">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>47</v>
@@ -3549,7 +3558,7 @@
         <v>18</v>
       </c>
       <c r="F49" s="32">
-        <v>52500</v>
+        <v>42000</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>47</v>
@@ -3596,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="32">
-        <v>84000</v>
+        <v>67200</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>47</v>
@@ -3643,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="32">
-        <v>140000</v>
+        <v>112000</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>47</v>
@@ -3690,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="32">
-        <v>1200000</v>
+        <v>960000</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>47</v>
@@ -3827,7 +3836,7 @@
         <v>26</v>
       </c>
       <c r="F55" s="14">
-        <v>18750</v>
+        <v>15000</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>122</v>
@@ -3875,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="F56" s="14">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>122</v>
@@ -3923,7 +3932,7 @@
         <v>18</v>
       </c>
       <c r="F57" s="14">
-        <v>112500</v>
+        <v>90000</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>122</v>
@@ -3971,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="14">
-        <v>180000</v>
+        <v>144000</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>122</v>
@@ -4019,7 +4028,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="14">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>122</v>
@@ -4067,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="14">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>122</v>
@@ -4204,7 +4213,7 @@
         <v>26</v>
       </c>
       <c r="F63" s="32">
-        <v>42500</v>
+        <v>34000</v>
       </c>
       <c r="G63" s="30" t="s">
         <v>122</v>
@@ -4252,7 +4261,7 @@
         <v>22</v>
       </c>
       <c r="F64" s="32">
-        <v>170000</v>
+        <v>136000</v>
       </c>
       <c r="G64" s="30" t="s">
         <v>122</v>
@@ -4283,7 +4292,7 @@
       </c>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="28">
         <v>61</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="F65" s="32">
-        <v>255000</v>
+        <v>204000</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>122</v>
@@ -4331,7 +4340,7 @@
       </c>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="28">
         <v>62</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="32">
-        <v>408000</v>
+        <v>326400</v>
       </c>
       <c r="G66" s="30" t="s">
         <v>122</v>
@@ -4379,7 +4388,7 @@
       </c>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28">
         <v>63</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="32">
-        <v>680000</v>
+        <v>544000</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>122</v>
@@ -4427,7 +4436,7 @@
       </c>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="28">
         <v>64</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="32">
-        <v>6800000</v>
+        <v>5440000</v>
       </c>
       <c r="G68" s="30" t="s">
         <v>122</v>
@@ -4474,7 +4483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="28">
         <v>65</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="28">
         <v>66</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="28">
         <v>67</v>
       </c>
@@ -4605,10 +4614,10 @@
         <v>1</v>
       </c>
       <c r="Q71" s="48"/>
+      <c r="S71" s="48"/>
       <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-    </row>
-    <row r="72" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="28">
         <v>68</v>
       </c>
@@ -4653,10 +4662,10 @@
         <v>2</v>
       </c>
       <c r="Q72" s="48"/>
+      <c r="S72" s="48"/>
       <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
-    </row>
-    <row r="73" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="28">
         <v>69</v>
       </c>
@@ -4673,7 +4682,7 @@
         <v>20</v>
       </c>
       <c r="F73" s="32">
-        <v>157500</v>
+        <v>236250</v>
       </c>
       <c r="G73" s="30" t="s">
         <v>122</v>
@@ -4704,7 +4713,7 @@
       </c>
       <c r="Q73" s="48"/>
     </row>
-    <row r="74" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="28">
         <v>70</v>
       </c>
@@ -4721,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="F74" s="32">
-        <v>630000</v>
+        <v>945000</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>122</v>
@@ -4752,7 +4761,7 @@
       </c>
       <c r="Q74" s="48"/>
     </row>
-    <row r="75" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="28">
         <v>71</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>18</v>
       </c>
       <c r="F75" s="32">
-        <v>1512000</v>
+        <v>2268000</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>122</v>
@@ -4800,7 +4809,7 @@
       </c>
       <c r="Q75" s="48"/>
     </row>
-    <row r="76" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="28">
         <v>72</v>
       </c>
@@ -4817,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="F76" s="32">
-        <v>2520000</v>
+        <v>3780000</v>
       </c>
       <c r="G76" s="30" t="s">
         <v>122</v>
@@ -4848,7 +4857,7 @@
       </c>
       <c r="Q76" s="48"/>
     </row>
-    <row r="77" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="28">
         <v>73</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="32">
-        <v>12600000</v>
+        <v>18900000</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>122</v>
@@ -4896,7 +4905,7 @@
       </c>
       <c r="Q77" s="48"/>
     </row>
-    <row r="78" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="28">
         <v>74</v>
       </c>
@@ -4913,7 +4922,7 @@
         <v>4</v>
       </c>
       <c r="F78" s="32">
-        <v>31500000</v>
+        <v>47250000</v>
       </c>
       <c r="G78" s="30" t="s">
         <v>122</v>
@@ -4944,7 +4953,7 @@
       </c>
       <c r="Q78" s="48"/>
     </row>
-    <row r="79" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="28">
         <v>75</v>
       </c>
@@ -4989,10 +4998,10 @@
         <v>1</v>
       </c>
       <c r="Q79" s="48"/>
+      <c r="S79" s="48"/>
       <c r="T79" s="48"/>
-      <c r="U79" s="48"/>
-    </row>
-    <row r="80" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="28">
         <v>76</v>
       </c>
@@ -5037,10 +5046,10 @@
         <v>2</v>
       </c>
       <c r="Q80" s="48"/>
+      <c r="S80" s="48"/>
       <c r="T80" s="48"/>
-      <c r="U80" s="48"/>
-    </row>
-    <row r="81" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="28">
         <v>77</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="F81" s="14">
-        <v>468680</v>
+        <v>703020</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>122</v>
@@ -5088,7 +5097,7 @@
       </c>
       <c r="R81" s="34"/>
     </row>
-    <row r="82" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="28">
         <v>78</v>
       </c>
@@ -5105,7 +5114,7 @@
         <v>22</v>
       </c>
       <c r="F82" s="14">
-        <v>1870000</v>
+        <v>2805000</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>122</v>
@@ -5136,7 +5145,7 @@
       </c>
       <c r="R82" s="34"/>
     </row>
-    <row r="83" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="28">
         <v>79</v>
       </c>
@@ -5153,7 +5162,7 @@
         <v>18</v>
       </c>
       <c r="F83" s="14">
-        <v>4500000</v>
+        <v>6750000</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>122</v>
@@ -5184,7 +5193,7 @@
       </c>
       <c r="R83" s="34"/>
     </row>
-    <row r="84" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="28">
         <v>80</v>
       </c>
@@ -5201,7 +5210,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="14">
-        <v>7500000</v>
+        <v>11250000</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>122</v>
@@ -5232,7 +5241,7 @@
       </c>
       <c r="R84" s="34"/>
     </row>
-    <row r="85" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="28">
         <v>81</v>
       </c>
@@ -5249,7 +5258,7 @@
         <v>8</v>
       </c>
       <c r="F85" s="14">
-        <v>13120000</v>
+        <v>19680000</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>122</v>
@@ -5280,7 +5289,7 @@
       </c>
       <c r="R85" s="34"/>
     </row>
-    <row r="86" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="28">
         <v>82</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="14">
-        <v>75000000</v>
+        <v>112500000</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>122</v>
@@ -5328,7 +5337,7 @@
       </c>
       <c r="R86" s="34"/>
     </row>
-    <row r="87" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="28">
         <v>83</v>
       </c>
@@ -5374,10 +5383,10 @@
       </c>
       <c r="Q87" s="48"/>
       <c r="R87" s="17"/>
+      <c r="S87" s="48"/>
       <c r="T87" s="48"/>
-      <c r="U87" s="48"/>
-    </row>
-    <row r="88" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="28">
         <v>84</v>
       </c>
@@ -5423,10 +5432,10 @@
       </c>
       <c r="Q88" s="48"/>
       <c r="R88" s="17"/>
+      <c r="S88" s="48"/>
       <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-    </row>
-    <row r="89" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="28">
         <v>85</v>
       </c>
@@ -5443,7 +5452,7 @@
         <v>26</v>
       </c>
       <c r="F89" s="37">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="G89" s="30" t="s">
         <v>122</v>
@@ -5473,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="28">
         <v>86</v>
       </c>
@@ -5490,7 +5499,7 @@
         <v>22</v>
       </c>
       <c r="F90" s="32">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G90" s="30" t="s">
         <v>122</v>
@@ -5520,7 +5529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="28">
         <v>87</v>
       </c>
@@ -5537,7 +5546,7 @@
         <v>18</v>
       </c>
       <c r="F91" s="51">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
       <c r="G91" s="30" t="s">
         <v>122</v>
@@ -5567,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="28">
         <v>88</v>
       </c>
@@ -5584,7 +5593,7 @@
         <v>12</v>
       </c>
       <c r="F92" s="32">
-        <v>9600000</v>
+        <v>14400000</v>
       </c>
       <c r="G92" s="30" t="s">
         <v>122</v>
@@ -5614,7 +5623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="28">
         <v>89</v>
       </c>
@@ -5631,7 +5640,7 @@
         <v>8</v>
       </c>
       <c r="F93" s="32">
-        <v>16000000</v>
+        <v>24000000</v>
       </c>
       <c r="G93" s="30" t="s">
         <v>122</v>
@@ -5661,7 +5670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="28">
         <v>90</v>
       </c>
@@ -5678,7 +5687,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="32">
-        <v>200000000</v>
+        <v>300000000</v>
       </c>
       <c r="G94" s="30" t="s">
         <v>122</v>
@@ -5708,7 +5717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="28">
         <v>91</v>
       </c>
@@ -5753,10 +5762,10 @@
         <v>1</v>
       </c>
       <c r="Q95" s="48"/>
+      <c r="S95" s="48"/>
       <c r="T95" s="48"/>
-      <c r="U95" s="48"/>
-    </row>
-    <row r="96" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="28">
         <v>92</v>
       </c>
@@ -5801,10 +5810,10 @@
         <v>2</v>
       </c>
       <c r="Q96" s="48"/>
+      <c r="S96" s="48"/>
       <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-    </row>
-    <row r="97" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="28">
         <v>93</v>
       </c>
@@ -5821,7 +5830,7 @@
         <v>26</v>
       </c>
       <c r="F97" s="23">
-        <v>2190000</v>
+        <v>3285000</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>122</v>
@@ -5852,7 +5861,7 @@
       </c>
       <c r="R97" s="34"/>
     </row>
-    <row r="98" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="28">
         <v>94</v>
       </c>
@@ -5869,7 +5878,7 @@
         <v>22</v>
       </c>
       <c r="F98" s="14">
-        <v>8750000</v>
+        <v>13125000</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>122</v>
@@ -5900,7 +5909,7 @@
       </c>
       <c r="R98" s="34"/>
     </row>
-    <row r="99" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="28">
         <v>95</v>
       </c>
@@ -5917,7 +5926,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="50">
-        <v>13120000</v>
+        <v>19680000</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>122</v>
@@ -5948,7 +5957,7 @@
       </c>
       <c r="R99" s="34"/>
     </row>
-    <row r="100" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="28">
         <v>96</v>
       </c>
@@ -5965,7 +5974,7 @@
         <v>12</v>
       </c>
       <c r="F100" s="50">
-        <v>21000000</v>
+        <v>31500000</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>122</v>
@@ -5996,7 +6005,7 @@
       </c>
       <c r="R100" s="34"/>
     </row>
-    <row r="101" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="28">
         <v>97</v>
       </c>
@@ -6013,7 +6022,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="14">
-        <v>35000000</v>
+        <v>52500000</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>122</v>
@@ -6044,7 +6053,7 @@
       </c>
       <c r="R101" s="34"/>
     </row>
-    <row r="102" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="28">
         <v>98</v>
       </c>
@@ -6061,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="F102" s="14">
-        <v>275000000</v>
+        <v>412500000</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>122</v>
@@ -6092,7 +6101,7 @@
       </c>
       <c r="R102" s="34"/>
     </row>
-    <row r="103" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="28">
         <v>99</v>
       </c>
@@ -6138,10 +6147,10 @@
       </c>
       <c r="Q103" s="48"/>
       <c r="R103" s="17"/>
+      <c r="S103" s="48"/>
       <c r="T103" s="48"/>
-      <c r="U103" s="48"/>
-    </row>
-    <row r="104" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="28">
         <v>100</v>
       </c>
@@ -6187,10 +6196,10 @@
       </c>
       <c r="Q104" s="48"/>
       <c r="R104" s="17"/>
+      <c r="S104" s="48"/>
       <c r="T104" s="48"/>
-      <c r="U104" s="48"/>
-    </row>
-    <row r="105" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="28">
         <v>101</v>
       </c>
@@ -6207,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="F105" s="37">
-        <v>5000000</v>
+        <v>7500000</v>
       </c>
       <c r="G105" s="30" t="s">
         <v>122</v>
@@ -6236,9 +6245,8 @@
       <c r="O105" s="38">
         <v>3</v>
       </c>
-      <c r="S105" s="17"/>
-    </row>
-    <row r="106" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="28">
         <v>102</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>22</v>
       </c>
       <c r="F106" s="32">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="G106" s="30" t="s">
         <v>122</v>
@@ -6284,9 +6292,8 @@
       <c r="O106" s="34">
         <v>4</v>
       </c>
-      <c r="S106" s="17"/>
-    </row>
-    <row r="107" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="28">
         <v>103</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>18</v>
       </c>
       <c r="F107" s="53">
-        <v>30000000</v>
+        <v>45000000</v>
       </c>
       <c r="G107" s="30" t="s">
         <v>122</v>
@@ -6332,9 +6339,8 @@
       <c r="O107" s="34">
         <v>5</v>
       </c>
-      <c r="S107" s="17"/>
-    </row>
-    <row r="108" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="28">
         <v>104</v>
       </c>
@@ -6351,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="32">
-        <v>48000000</v>
+        <v>72000000</v>
       </c>
       <c r="G108" s="30" t="s">
         <v>122</v>
@@ -6380,9 +6386,8 @@
       <c r="O108" s="34">
         <v>6</v>
       </c>
-      <c r="S108" s="17"/>
-    </row>
-    <row r="109" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="28">
         <v>105</v>
       </c>
@@ -6399,7 +6404,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="32">
-        <v>80000000</v>
+        <v>120000000</v>
       </c>
       <c r="G109" s="30" t="s">
         <v>122</v>
@@ -6428,9 +6433,8 @@
       <c r="O109" s="34">
         <v>7</v>
       </c>
-      <c r="S109" s="17"/>
-    </row>
-    <row r="110" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:20" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="28">
         <v>106</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="F110" s="32">
-        <v>340000000</v>
+        <v>510000000</v>
       </c>
       <c r="G110" s="30" t="s">
         <v>122</v>
@@ -6476,9 +6480,8 @@
       <c r="O110" s="38">
         <v>8</v>
       </c>
-      <c r="S110" s="17"/>
-    </row>
-    <row r="111" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28">
         <v>107</v>
       </c>
@@ -6523,10 +6526,10 @@
         <v>1</v>
       </c>
       <c r="Q111" s="48"/>
+      <c r="S111" s="48"/>
       <c r="T111" s="48"/>
-      <c r="U111" s="48"/>
-    </row>
-    <row r="112" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="28">
         <v>108</v>
       </c>
@@ -6571,10 +6574,10 @@
         <v>2</v>
       </c>
       <c r="Q112" s="48"/>
+      <c r="S112" s="48"/>
       <c r="T112" s="48"/>
-      <c r="U112" s="48"/>
-    </row>
-    <row r="113" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="28">
         <v>109</v>
       </c>
@@ -6591,7 +6594,7 @@
         <v>26</v>
       </c>
       <c r="F113" s="23">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>122</v>
@@ -6622,7 +6625,7 @@
       </c>
       <c r="R113" s="34"/>
     </row>
-    <row r="114" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="28">
         <v>110</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>22</v>
       </c>
       <c r="F114" s="14">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>122</v>
@@ -6670,7 +6673,7 @@
       </c>
       <c r="R114" s="34"/>
     </row>
-    <row r="115" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="28">
         <v>111</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="50">
-        <v>67500000</v>
+        <v>101250000</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>122</v>
@@ -6718,7 +6721,7 @@
       </c>
       <c r="R115" s="34"/>
     </row>
-    <row r="116" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="28">
         <v>112</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="14">
-        <v>180000000</v>
+        <v>270000000</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>122</v>
@@ -6766,7 +6769,7 @@
       </c>
       <c r="R116" s="34"/>
     </row>
-    <row r="117" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="28">
         <v>113</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="14">
-        <v>900000000</v>
+        <v>1350000000</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>122</v>
@@ -6814,7 +6817,7 @@
       </c>
       <c r="R117" s="34"/>
     </row>
-    <row r="118" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="28">
         <v>114</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="F118" s="14">
-        <v>2250000000</v>
+        <v>3375000000</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>122</v>
@@ -6862,7 +6865,7 @@
       </c>
       <c r="R118" s="34"/>
     </row>
-    <row r="119" spans="1:21" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="28">
         <v>115</v>
       </c>
@@ -6908,10 +6911,10 @@
       </c>
       <c r="Q119" s="48"/>
       <c r="R119" s="17"/>
+      <c r="S119" s="48"/>
       <c r="T119" s="48"/>
-      <c r="U119" s="48"/>
-    </row>
-    <row r="120" spans="1:21" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:20" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="28">
         <v>116</v>
       </c>
@@ -6957,10 +6960,10 @@
       </c>
       <c r="Q120" s="48"/>
       <c r="R120" s="17"/>
+      <c r="S120" s="48"/>
       <c r="T120" s="48"/>
-      <c r="U120" s="48"/>
-    </row>
-    <row r="121" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:20" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A121" s="28">
         <v>117</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>26</v>
       </c>
       <c r="F121" s="37">
-        <v>15620000</v>
+        <v>23430000</v>
       </c>
       <c r="G121" s="30" t="s">
         <v>122</v>
@@ -7006,9 +7009,8 @@
       <c r="O121" s="38">
         <v>3</v>
       </c>
-      <c r="S121" s="17"/>
-    </row>
-    <row r="122" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:20" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A122" s="28">
         <v>118</v>
       </c>
@@ -7025,7 +7027,7 @@
         <v>22</v>
       </c>
       <c r="F122" s="32">
-        <v>62500000</v>
+        <v>93750000</v>
       </c>
       <c r="G122" s="30" t="s">
         <v>122</v>
@@ -7054,9 +7056,8 @@
       <c r="O122" s="34">
         <v>4</v>
       </c>
-      <c r="S122" s="17"/>
-    </row>
-    <row r="123" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:20" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A123" s="28">
         <v>119</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>18</v>
       </c>
       <c r="F123" s="51">
-        <v>93750000</v>
+        <v>140625000</v>
       </c>
       <c r="G123" s="30" t="s">
         <v>122</v>
@@ -7102,9 +7103,8 @@
       <c r="O123" s="34">
         <v>5</v>
       </c>
-      <c r="S123" s="17"/>
-    </row>
-    <row r="124" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:20" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A124" s="28">
         <v>120</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="32">
-        <v>150000000</v>
+        <v>225000000</v>
       </c>
       <c r="G124" s="30" t="s">
         <v>122</v>
@@ -7150,9 +7150,8 @@
       <c r="O124" s="34">
         <v>6</v>
       </c>
-      <c r="S124" s="17"/>
-    </row>
-    <row r="125" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:20" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A125" s="28">
         <v>121</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>8</v>
       </c>
       <c r="F125" s="32">
-        <v>250000000</v>
+        <v>375000000</v>
       </c>
       <c r="G125" s="30" t="s">
         <v>122</v>
@@ -7198,9 +7197,8 @@
       <c r="O125" s="34">
         <v>7</v>
       </c>
-      <c r="S125" s="17"/>
-    </row>
-    <row r="126" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:20" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A126" s="28">
         <v>122</v>
       </c>
@@ -7217,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="F126" s="32">
-        <v>3120000000</v>
+        <v>4680000000</v>
       </c>
       <c r="G126" s="30" t="s">
         <v>122</v>
@@ -7246,9 +7244,8 @@
       <c r="O126" s="38">
         <v>8</v>
       </c>
-      <c r="S126" s="17"/>
-    </row>
-    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:20" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="28">
         <v>123</v>
       </c>
@@ -7265,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="45">
-        <v>12500000000</v>
+        <v>18750000000</v>
       </c>
       <c r="G127" s="43" t="s">
         <v>122</v>
@@ -7291,7 +7288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="28">
         <v>124</v>
       </c>
@@ -7308,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="45">
-        <v>25000000000</v>
+        <v>37500000000</v>
       </c>
       <c r="G128" s="43" t="s">
         <v>122</v>
@@ -7351,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="45">
-        <v>50000000000</v>
+        <v>75000000000</v>
       </c>
       <c r="G129" s="43" t="s">
         <v>122</v>
@@ -7394,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="45">
-        <v>1000000000000</v>
+        <v>1500000000000</v>
       </c>
       <c r="G130" s="43" t="s">
         <v>122</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -474,7 +474,7 @@
     <t xml:space="preserve">墓地大宝箱</t>
   </si>
   <si>
-    <t xml:space="preserve">30FD7AEA4E9AD2EA1F379C96119CC831</t>
+    <t xml:space="preserve">E59481884538144A818EA3AB03694291</t>
   </si>
   <si>
     <t xml:space="preserve">地狱宝箱1</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">天堂宝箱3</t>
   </si>
   <si>
-    <t xml:space="preserve">6B1725F740461A27F39FE2B79013F4C5</t>
+    <t xml:space="preserve">E3743F1B4215CBBBABC2CDB179B18011</t>
   </si>
   <si>
     <t xml:space="preserve">boolean</t>
@@ -1345,7 +1345,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D134" activeCellId="0" sqref="D134"/>
+      <selection pane="bottomLeft" activeCell="H120" activeCellId="0" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999F1318-ABBE-4CA3-A2BC-5F3ADA045DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB84079-BD7F-4EBB-B926-98A812D0B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,17 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -1256,11 +1265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U131"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1279,8 +1288,8 @@
     <col min="14" max="14" width="11" style="2" customWidth="1"/>
     <col min="15" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="18" max="23" width="11" customWidth="1"/>
-    <col min="988" max="1004" width="11" customWidth="1"/>
+    <col min="18" max="19" width="11" customWidth="1"/>
+    <col min="982" max="998" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1451,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="14">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -1496,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="20">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="G6" s="19">
         <v>2</v>
@@ -1540,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="14">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>47</v>
@@ -1590,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="14">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>47</v>
@@ -1640,7 +1649,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="26">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>47</v>
@@ -1690,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="14">
-        <v>960</v>
+        <v>864</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>47</v>
@@ -1737,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="14">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>47</v>
@@ -1787,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="14">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>47</v>
@@ -1834,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="32">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="G13" s="28">
         <v>2</v>
@@ -1879,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="32">
-        <v>3840</v>
+        <v>3456</v>
       </c>
       <c r="G14" s="28">
         <v>2</v>
@@ -1924,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="32">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>47</v>
@@ -1974,7 +1983,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="37">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>47</v>
@@ -2024,7 +2033,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="32">
-        <v>3840</v>
+        <v>3456</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>47</v>
@@ -2074,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="32">
-        <v>6400</v>
+        <v>5760</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>47</v>
@@ -2122,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="32">
-        <v>11200</v>
+        <v>10080</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>47</v>
@@ -2172,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="32">
-        <v>32000</v>
+        <v>28800</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>47</v>
@@ -2219,7 +2228,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="14">
-        <v>3600</v>
+        <v>3240</v>
       </c>
       <c r="G21" s="10">
         <v>2</v>
@@ -2264,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="14">
-        <v>8640</v>
+        <v>7776</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
@@ -2309,7 +2318,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="14">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>47</v>
@@ -2359,7 +2368,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="14">
-        <v>3600</v>
+        <v>3240</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>47</v>
@@ -2409,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="26">
-        <v>5400</v>
+        <v>4860</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>47</v>
@@ -2459,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="14">
-        <v>8640</v>
+        <v>7776</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>47</v>
@@ -2507,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="14">
-        <v>14400</v>
+        <v>12960</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>47</v>
@@ -2557,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="14">
-        <v>180000</v>
+        <v>162000</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>47</v>
@@ -2604,7 +2613,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="37">
-        <v>6400</v>
+        <v>5760</v>
       </c>
       <c r="G29" s="28">
         <v>2</v>
@@ -2649,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="32">
-        <v>15360</v>
+        <v>13824</v>
       </c>
       <c r="G30" s="28">
         <v>2</v>
@@ -2694,7 +2703,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="32">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>47</v>
@@ -2744,7 +2753,7 @@
         <v>22</v>
       </c>
       <c r="F32" s="32">
-        <v>6400</v>
+        <v>5760</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>47</v>
@@ -2794,7 +2803,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="32">
-        <v>9600</v>
+        <v>8640</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>47</v>
@@ -2844,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="32">
-        <v>15360</v>
+        <v>13824</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>47</v>
@@ -2891,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="32">
-        <v>25600</v>
+        <v>23040</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>47</v>
@@ -2941,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="32">
-        <v>320000</v>
+        <v>288000</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>47</v>
@@ -2988,7 +2997,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="14">
-        <v>15200</v>
+        <v>13680</v>
       </c>
       <c r="G37" s="10">
         <v>2</v>
@@ -3033,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="14">
-        <v>32000</v>
+        <v>28800</v>
       </c>
       <c r="G38" s="10">
         <v>2</v>
@@ -3078,7 +3087,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="14">
-        <v>3800</v>
+        <v>3420</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>47</v>
@@ -3126,7 +3135,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="14">
-        <v>15200</v>
+        <v>13680</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>47</v>
@@ -3174,7 +3183,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="14">
-        <v>22800</v>
+        <v>20520</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>47</v>
@@ -3222,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="14">
-        <v>36480</v>
+        <v>32832</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>47</v>
@@ -3270,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="14">
-        <v>60800</v>
+        <v>54720</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>47</v>
@@ -3318,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="14">
-        <v>760000</v>
+        <v>684000</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>47</v>
@@ -3365,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="37">
-        <v>28000</v>
+        <v>25200</v>
       </c>
       <c r="G45" s="28">
         <v>2</v>
@@ -3410,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="32">
-        <v>67200</v>
+        <v>60480</v>
       </c>
       <c r="G46" s="28">
         <v>2</v>
@@ -3455,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="32">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>47</v>
@@ -3502,7 +3511,7 @@
         <v>22</v>
       </c>
       <c r="F48" s="32">
-        <v>28000</v>
+        <v>25200</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>47</v>
@@ -3549,7 +3558,7 @@
         <v>18</v>
       </c>
       <c r="F49" s="32">
-        <v>42000</v>
+        <v>37800</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>47</v>
@@ -3596,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="32">
-        <v>67200</v>
+        <v>60480</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>47</v>
@@ -3643,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="32">
-        <v>112000</v>
+        <v>100800</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>47</v>
@@ -3690,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="32">
-        <v>960000</v>
+        <v>864000</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>47</v>
@@ -3737,7 +3746,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="14">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G53" s="10">
         <v>2</v>
@@ -3782,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="F54" s="14">
-        <v>144000</v>
+        <v>129600</v>
       </c>
       <c r="G54" s="10">
         <v>2</v>
@@ -3827,7 +3836,7 @@
         <v>26</v>
       </c>
       <c r="F55" s="14">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>122</v>
@@ -3875,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="F56" s="14">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>122</v>
@@ -3923,7 +3932,7 @@
         <v>18</v>
       </c>
       <c r="F57" s="14">
-        <v>90000</v>
+        <v>81000</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>122</v>
@@ -3971,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="14">
-        <v>144000</v>
+        <v>129600</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>122</v>
@@ -4019,7 +4028,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="14">
-        <v>240000</v>
+        <v>216000</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>122</v>
@@ -4067,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="14">
-        <v>1200000</v>
+        <v>1080000</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>122</v>
@@ -4114,7 +4123,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="37">
-        <v>136000</v>
+        <v>122400</v>
       </c>
       <c r="G61" s="28">
         <v>2</v>
@@ -4159,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="32">
-        <v>326400</v>
+        <v>293760</v>
       </c>
       <c r="G62" s="28">
         <v>2</v>
@@ -4204,7 +4213,7 @@
         <v>26</v>
       </c>
       <c r="F63" s="32">
-        <v>34000</v>
+        <v>30600</v>
       </c>
       <c r="G63" s="30" t="s">
         <v>122</v>
@@ -4252,7 +4261,7 @@
         <v>22</v>
       </c>
       <c r="F64" s="32">
-        <v>136000</v>
+        <v>122400</v>
       </c>
       <c r="G64" s="30" t="s">
         <v>122</v>
@@ -4283,7 +4292,7 @@
       </c>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="28">
         <v>61</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>18</v>
       </c>
       <c r="F65" s="32">
-        <v>204000</v>
+        <v>183600</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>122</v>
@@ -4331,7 +4340,7 @@
       </c>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="28">
         <v>62</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="32">
-        <v>326400</v>
+        <v>293760</v>
       </c>
       <c r="G66" s="30" t="s">
         <v>122</v>
@@ -4379,7 +4388,7 @@
       </c>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28">
         <v>63</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="32">
-        <v>544000</v>
+        <v>489600</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>122</v>
@@ -4427,7 +4436,7 @@
       </c>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:21" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="28">
         <v>64</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="32">
-        <v>5440000</v>
+        <v>4896000</v>
       </c>
       <c r="G68" s="30" t="s">
         <v>122</v>
@@ -4474,7 +4483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="28">
         <v>65</v>
       </c>
@@ -4491,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="42">
-        <v>160000000</v>
+        <v>144000000</v>
       </c>
       <c r="G69" s="43" t="s">
         <v>47</v>
@@ -4517,7 +4526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="28">
         <v>66</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="28">
         <v>67</v>
       </c>
@@ -4583,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="H71" s="28">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="13">
@@ -4605,10 +4614,8 @@
         <v>1</v>
       </c>
       <c r="Q71" s="48"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-    </row>
-    <row r="72" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="28">
         <v>68</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="28">
-        <v>6750</v>
+        <v>9450</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="13">
@@ -4653,10 +4660,8 @@
         <v>2</v>
       </c>
       <c r="Q72" s="48"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
-    </row>
-    <row r="73" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="28">
         <v>69</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>20</v>
       </c>
       <c r="F73" s="32">
-        <v>315000</v>
+        <v>378000</v>
       </c>
       <c r="G73" s="30" t="s">
         <v>122</v>
@@ -4704,7 +4709,7 @@
       </c>
       <c r="Q73" s="48"/>
     </row>
-    <row r="74" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="28">
         <v>70</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>22</v>
       </c>
       <c r="F74" s="32">
-        <v>1260000</v>
+        <v>1512000</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>122</v>
@@ -4752,7 +4757,7 @@
       </c>
       <c r="Q74" s="48"/>
     </row>
-    <row r="75" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="28">
         <v>71</v>
       </c>
@@ -4769,7 +4774,7 @@
         <v>18</v>
       </c>
       <c r="F75" s="32">
-        <v>3024000</v>
+        <v>3628800</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>122</v>
@@ -4800,7 +4805,7 @@
       </c>
       <c r="Q75" s="48"/>
     </row>
-    <row r="76" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="28">
         <v>72</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>12</v>
       </c>
       <c r="F76" s="32">
-        <v>5040000</v>
+        <v>6048000</v>
       </c>
       <c r="G76" s="30" t="s">
         <v>122</v>
@@ -4848,7 +4853,7 @@
       </c>
       <c r="Q76" s="48"/>
     </row>
-    <row r="77" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="28">
         <v>73</v>
       </c>
@@ -4865,7 +4870,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="32">
-        <v>25200000</v>
+        <v>30240000</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>122</v>
@@ -4896,7 +4901,7 @@
       </c>
       <c r="Q77" s="48"/>
     </row>
-    <row r="78" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="28">
         <v>74</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>4</v>
       </c>
       <c r="F78" s="32">
-        <v>63000000</v>
+        <v>75600000</v>
       </c>
       <c r="G78" s="30" t="s">
         <v>122</v>
@@ -4944,7 +4949,7 @@
       </c>
       <c r="Q78" s="48"/>
     </row>
-    <row r="79" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="28">
         <v>75</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="H79" s="10">
-        <v>3300</v>
+        <v>4620</v>
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="13">
@@ -4989,10 +4994,8 @@
         <v>1</v>
       </c>
       <c r="Q79" s="48"/>
-      <c r="T79" s="48"/>
-      <c r="U79" s="48"/>
-    </row>
-    <row r="80" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:17" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="28">
         <v>76</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="H80" s="10">
-        <v>7425</v>
+        <v>10395</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="13">
@@ -5037,10 +5040,8 @@
         <v>2</v>
       </c>
       <c r="Q80" s="48"/>
-      <c r="T80" s="48"/>
-      <c r="U80" s="48"/>
-    </row>
-    <row r="81" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:18" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="28">
         <v>77</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>26</v>
       </c>
       <c r="F81" s="14">
-        <v>937360</v>
+        <v>1124832</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>122</v>
@@ -5088,7 +5089,7 @@
       </c>
       <c r="R81" s="34"/>
     </row>
-    <row r="82" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="28">
         <v>78</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>22</v>
       </c>
       <c r="F82" s="14">
-        <v>3740000</v>
+        <v>4488000</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>122</v>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="R82" s="34"/>
     </row>
-    <row r="83" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="28">
         <v>79</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>18</v>
       </c>
       <c r="F83" s="14">
-        <v>9000000</v>
+        <v>10800000</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>122</v>
@@ -5184,7 +5185,7 @@
       </c>
       <c r="R83" s="34"/>
     </row>
-    <row r="84" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="28">
         <v>80</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="14">
-        <v>15000000</v>
+        <v>18000000</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>122</v>
@@ -5232,7 +5233,7 @@
       </c>
       <c r="R84" s="34"/>
     </row>
-    <row r="85" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="28">
         <v>81</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>8</v>
       </c>
       <c r="F85" s="14">
-        <v>26240000</v>
+        <v>31488000</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>122</v>
@@ -5280,7 +5281,7 @@
       </c>
       <c r="R85" s="34"/>
     </row>
-    <row r="86" spans="1:21" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="28">
         <v>82</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="14">
-        <v>150000000</v>
+        <v>180000000</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>122</v>
@@ -5328,7 +5329,7 @@
       </c>
       <c r="R86" s="34"/>
     </row>
-    <row r="87" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="28">
         <v>83</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="H87" s="28">
-        <v>3630</v>
+        <v>5082</v>
       </c>
       <c r="I87" s="32"/>
       <c r="J87" s="13">
@@ -5374,10 +5375,8 @@
       </c>
       <c r="Q87" s="48"/>
       <c r="R87" s="17"/>
-      <c r="T87" s="48"/>
-      <c r="U87" s="48"/>
-    </row>
-    <row r="88" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="28">
         <v>84</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="28">
-        <v>8167</v>
+        <v>11433</v>
       </c>
       <c r="I88" s="32"/>
       <c r="J88" s="13">
@@ -5423,10 +5422,8 @@
       </c>
       <c r="Q88" s="48"/>
       <c r="R88" s="17"/>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-    </row>
-    <row r="89" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="28">
         <v>85</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>26</v>
       </c>
       <c r="F89" s="37">
-        <v>2000000</v>
+        <v>2400000</v>
       </c>
       <c r="G89" s="30" t="s">
         <v>122</v>
@@ -5473,7 +5470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="28">
         <v>86</v>
       </c>
@@ -5490,7 +5487,7 @@
         <v>22</v>
       </c>
       <c r="F90" s="32">
-        <v>8000000</v>
+        <v>9600000</v>
       </c>
       <c r="G90" s="30" t="s">
         <v>122</v>
@@ -5520,7 +5517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="28">
         <v>87</v>
       </c>
@@ -5537,7 +5534,7 @@
         <v>18</v>
       </c>
       <c r="F91" s="51">
-        <v>12000000</v>
+        <v>14400000</v>
       </c>
       <c r="G91" s="30" t="s">
         <v>122</v>
@@ -5567,7 +5564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="28">
         <v>88</v>
       </c>
@@ -5584,7 +5581,7 @@
         <v>12</v>
       </c>
       <c r="F92" s="32">
-        <v>19200000</v>
+        <v>23040000</v>
       </c>
       <c r="G92" s="30" t="s">
         <v>122</v>
@@ -5614,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="28">
         <v>89</v>
       </c>
@@ -5631,7 +5628,7 @@
         <v>8</v>
       </c>
       <c r="F93" s="32">
-        <v>32000000</v>
+        <v>38400000</v>
       </c>
       <c r="G93" s="30" t="s">
         <v>122</v>
@@ -5661,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="28">
         <v>90</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="32">
-        <v>400000000</v>
+        <v>480000000</v>
       </c>
       <c r="G94" s="30" t="s">
         <v>122</v>
@@ -5708,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="28">
         <v>91</v>
       </c>
@@ -5731,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="H95" s="14">
-        <v>3993</v>
+        <v>5590</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="13">
@@ -5753,10 +5750,8 @@
         <v>1</v>
       </c>
       <c r="Q95" s="48"/>
-      <c r="T95" s="48"/>
-      <c r="U95" s="48"/>
-    </row>
-    <row r="96" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="28">
         <v>92</v>
       </c>
@@ -5779,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="14">
-        <v>8984</v>
+        <v>12577</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="13">
@@ -5801,10 +5796,8 @@
         <v>2</v>
       </c>
       <c r="Q96" s="48"/>
-      <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-    </row>
-    <row r="97" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="28">
         <v>93</v>
       </c>
@@ -5821,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="F97" s="23">
-        <v>4380000</v>
+        <v>5256000</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>122</v>
@@ -5852,7 +5845,7 @@
       </c>
       <c r="R97" s="34"/>
     </row>
-    <row r="98" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="28">
         <v>94</v>
       </c>
@@ -5869,7 +5862,7 @@
         <v>22</v>
       </c>
       <c r="F98" s="14">
-        <v>17500000</v>
+        <v>21000000</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>122</v>
@@ -5900,7 +5893,7 @@
       </c>
       <c r="R98" s="34"/>
     </row>
-    <row r="99" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="28">
         <v>95</v>
       </c>
@@ -5917,7 +5910,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="50">
-        <v>26240000</v>
+        <v>31488000</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>122</v>
@@ -5948,7 +5941,7 @@
       </c>
       <c r="R99" s="34"/>
     </row>
-    <row r="100" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="28">
         <v>96</v>
       </c>
@@ -5965,7 +5958,7 @@
         <v>12</v>
       </c>
       <c r="F100" s="50">
-        <v>42000000</v>
+        <v>50400000</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>122</v>
@@ -5996,7 +5989,7 @@
       </c>
       <c r="R100" s="34"/>
     </row>
-    <row r="101" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="28">
         <v>97</v>
       </c>
@@ -6013,7 +6006,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="14">
-        <v>70000000</v>
+        <v>84000000</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>122</v>
@@ -6044,7 +6037,7 @@
       </c>
       <c r="R101" s="34"/>
     </row>
-    <row r="102" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="28">
         <v>98</v>
       </c>
@@ -6061,7 +6054,7 @@
         <v>4</v>
       </c>
       <c r="F102" s="14">
-        <v>550000000</v>
+        <v>660000000</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>122</v>
@@ -6092,7 +6085,7 @@
       </c>
       <c r="R102" s="34"/>
     </row>
-    <row r="103" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="28">
         <v>99</v>
       </c>
@@ -6115,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="H103" s="32">
-        <v>4392</v>
+        <v>6148</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="13">
@@ -6138,10 +6131,8 @@
       </c>
       <c r="Q103" s="48"/>
       <c r="R103" s="17"/>
-      <c r="T103" s="48"/>
-      <c r="U103" s="48"/>
-    </row>
-    <row r="104" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="28">
         <v>100</v>
       </c>
@@ -6164,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="H104" s="32">
-        <v>9882</v>
+        <v>13834</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="13">
@@ -6187,10 +6178,8 @@
       </c>
       <c r="Q104" s="48"/>
       <c r="R104" s="17"/>
-      <c r="T104" s="48"/>
-      <c r="U104" s="48"/>
-    </row>
-    <row r="105" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="28">
         <v>101</v>
       </c>
@@ -6207,7 +6196,7 @@
         <v>26</v>
       </c>
       <c r="F105" s="37">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="G105" s="30" t="s">
         <v>122</v>
@@ -6238,7 +6227,7 @@
       </c>
       <c r="S105" s="17"/>
     </row>
-    <row r="106" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="28">
         <v>102</v>
       </c>
@@ -6255,7 +6244,7 @@
         <v>22</v>
       </c>
       <c r="F106" s="32">
-        <v>40000000</v>
+        <v>48000000</v>
       </c>
       <c r="G106" s="30" t="s">
         <v>122</v>
@@ -6286,7 +6275,7 @@
       </c>
       <c r="S106" s="17"/>
     </row>
-    <row r="107" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="28">
         <v>103</v>
       </c>
@@ -6303,7 +6292,7 @@
         <v>18</v>
       </c>
       <c r="F107" s="53">
-        <v>60000000</v>
+        <v>72000000</v>
       </c>
       <c r="G107" s="30" t="s">
         <v>122</v>
@@ -6334,7 +6323,7 @@
       </c>
       <c r="S107" s="17"/>
     </row>
-    <row r="108" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="28">
         <v>104</v>
       </c>
@@ -6351,7 +6340,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="32">
-        <v>96000000</v>
+        <v>115200000</v>
       </c>
       <c r="G108" s="30" t="s">
         <v>122</v>
@@ -6382,7 +6371,7 @@
       </c>
       <c r="S108" s="17"/>
     </row>
-    <row r="109" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="28">
         <v>105</v>
       </c>
@@ -6399,7 +6388,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="32">
-        <v>160000000</v>
+        <v>192000000</v>
       </c>
       <c r="G109" s="30" t="s">
         <v>122</v>
@@ -6430,7 +6419,7 @@
       </c>
       <c r="S109" s="17"/>
     </row>
-    <row r="110" spans="1:21" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="28">
         <v>106</v>
       </c>
@@ -6447,7 +6436,7 @@
         <v>4</v>
       </c>
       <c r="F110" s="32">
-        <v>680000000</v>
+        <v>816000000</v>
       </c>
       <c r="G110" s="30" t="s">
         <v>122</v>
@@ -6478,7 +6467,7 @@
       </c>
       <c r="S110" s="17"/>
     </row>
-    <row r="111" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28">
         <v>107</v>
       </c>
@@ -6501,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="H111" s="14">
-        <v>4831</v>
+        <v>6763</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="13">
@@ -6523,10 +6512,8 @@
         <v>1</v>
       </c>
       <c r="Q111" s="48"/>
-      <c r="T111" s="48"/>
-      <c r="U111" s="48"/>
-    </row>
-    <row r="112" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="28">
         <v>108</v>
       </c>
@@ -6549,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="H112" s="14">
-        <v>10870</v>
+        <v>15218</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="13">
@@ -6571,10 +6558,8 @@
         <v>2</v>
       </c>
       <c r="Q112" s="48"/>
-      <c r="T112" s="48"/>
-      <c r="U112" s="48"/>
-    </row>
-    <row r="113" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="28">
         <v>109</v>
       </c>
@@ -6591,7 +6576,7 @@
         <v>26</v>
       </c>
       <c r="F113" s="23">
-        <v>40000000</v>
+        <v>48000000</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>122</v>
@@ -6622,7 +6607,7 @@
       </c>
       <c r="R113" s="34"/>
     </row>
-    <row r="114" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="28">
         <v>110</v>
       </c>
@@ -6639,7 +6624,7 @@
         <v>22</v>
       </c>
       <c r="F114" s="14">
-        <v>80000000</v>
+        <v>96000000</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>122</v>
@@ -6670,7 +6655,7 @@
       </c>
       <c r="R114" s="34"/>
     </row>
-    <row r="115" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="28">
         <v>111</v>
       </c>
@@ -6687,7 +6672,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="50">
-        <v>135000000</v>
+        <v>162000000</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>122</v>
@@ -6718,7 +6703,7 @@
       </c>
       <c r="R115" s="34"/>
     </row>
-    <row r="116" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="28">
         <v>112</v>
       </c>
@@ -6735,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="14">
-        <v>360000000</v>
+        <v>432000000</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>122</v>
@@ -6766,7 +6751,7 @@
       </c>
       <c r="R116" s="34"/>
     </row>
-    <row r="117" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="28">
         <v>113</v>
       </c>
@@ -6783,7 +6768,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="14">
-        <v>1800000000</v>
+        <v>2160000000</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>122</v>
@@ -6814,7 +6799,7 @@
       </c>
       <c r="R117" s="34"/>
     </row>
-    <row r="118" spans="1:21" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="28">
         <v>114</v>
       </c>
@@ -6831,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="F118" s="14">
-        <v>4500000000</v>
+        <v>5400000000</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>122</v>
@@ -6862,7 +6847,7 @@
       </c>
       <c r="R118" s="34"/>
     </row>
-    <row r="119" spans="1:21" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="28">
         <v>115</v>
       </c>
@@ -6885,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="H119" s="32">
-        <v>5314</v>
+        <v>7439</v>
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="13">
@@ -6908,10 +6893,8 @@
       </c>
       <c r="Q119" s="48"/>
       <c r="R119" s="17"/>
-      <c r="T119" s="48"/>
-      <c r="U119" s="48"/>
-    </row>
-    <row r="120" spans="1:21" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:19" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="28">
         <v>116</v>
       </c>
@@ -6934,7 +6917,7 @@
         <v>2</v>
       </c>
       <c r="H120" s="32">
-        <v>11958</v>
+        <v>16741</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="13">
@@ -6957,10 +6940,8 @@
       </c>
       <c r="Q120" s="48"/>
       <c r="R120" s="17"/>
-      <c r="T120" s="48"/>
-      <c r="U120" s="48"/>
-    </row>
-    <row r="121" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A121" s="28">
         <v>117</v>
       </c>
@@ -6977,7 +6958,7 @@
         <v>26</v>
       </c>
       <c r="F121" s="37">
-        <v>31240000</v>
+        <v>37488000</v>
       </c>
       <c r="G121" s="30" t="s">
         <v>122</v>
@@ -7008,7 +6989,7 @@
       </c>
       <c r="S121" s="17"/>
     </row>
-    <row r="122" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A122" s="28">
         <v>118</v>
       </c>
@@ -7025,7 +7006,7 @@
         <v>22</v>
       </c>
       <c r="F122" s="32">
-        <v>125000000</v>
+        <v>150000000</v>
       </c>
       <c r="G122" s="30" t="s">
         <v>122</v>
@@ -7056,7 +7037,7 @@
       </c>
       <c r="S122" s="17"/>
     </row>
-    <row r="123" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A123" s="28">
         <v>119</v>
       </c>
@@ -7073,7 +7054,7 @@
         <v>18</v>
       </c>
       <c r="F123" s="51">
-        <v>187500000</v>
+        <v>225000000</v>
       </c>
       <c r="G123" s="30" t="s">
         <v>122</v>
@@ -7104,7 +7085,7 @@
       </c>
       <c r="S123" s="17"/>
     </row>
-    <row r="124" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A124" s="28">
         <v>120</v>
       </c>
@@ -7121,7 +7102,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="32">
-        <v>300000000</v>
+        <v>360000000</v>
       </c>
       <c r="G124" s="30" t="s">
         <v>122</v>
@@ -7152,7 +7133,7 @@
       </c>
       <c r="S124" s="17"/>
     </row>
-    <row r="125" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A125" s="28">
         <v>121</v>
       </c>
@@ -7169,7 +7150,7 @@
         <v>8</v>
       </c>
       <c r="F125" s="32">
-        <v>500000000</v>
+        <v>600000000</v>
       </c>
       <c r="G125" s="30" t="s">
         <v>122</v>
@@ -7200,7 +7181,7 @@
       </c>
       <c r="S125" s="17"/>
     </row>
-    <row r="126" spans="1:21" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A126" s="28">
         <v>122</v>
       </c>
@@ -7217,7 +7198,7 @@
         <v>4</v>
       </c>
       <c r="F126" s="32">
-        <v>6240000000</v>
+        <v>7488000000</v>
       </c>
       <c r="G126" s="30" t="s">
         <v>122</v>
@@ -7248,7 +7229,7 @@
       </c>
       <c r="S126" s="17"/>
     </row>
-    <row r="127" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="28">
         <v>123</v>
       </c>
@@ -7291,7 +7272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="28">
         <v>124</v>
       </c>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB84079-BD7F-4EBB-B926-98A812D0B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D655A0E-EB2F-4FB1-A8A7-FB2072F49079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,11 +1265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T59" sqref="T59"/>
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1288,8 +1288,8 @@
     <col min="14" max="14" width="11" style="2" customWidth="1"/>
     <col min="15" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
-    <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="982" max="998" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="981" max="997" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4552,7 +4552,7 @@
         <v>150</v>
       </c>
       <c r="I70" s="44">
-        <v>4000000</v>
+        <v>5000</v>
       </c>
       <c r="J70" s="13">
         <v>1.5</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="Q96" s="48"/>
     </row>
-    <row r="97" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="28">
         <v>93</v>
       </c>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="R97" s="34"/>
     </row>
-    <row r="98" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="28">
         <v>94</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="R98" s="34"/>
     </row>
-    <row r="99" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="28">
         <v>95</v>
       </c>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="R99" s="34"/>
     </row>
-    <row r="100" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="28">
         <v>96</v>
       </c>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="R100" s="34"/>
     </row>
-    <row r="101" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="28">
         <v>97</v>
       </c>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="R101" s="34"/>
     </row>
-    <row r="102" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="28">
         <v>98</v>
       </c>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="R102" s="34"/>
     </row>
-    <row r="103" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="28">
         <v>99</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="Q103" s="48"/>
       <c r="R103" s="17"/>
     </row>
-    <row r="104" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="28">
         <v>100</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="Q104" s="48"/>
       <c r="R104" s="17"/>
     </row>
-    <row r="105" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="28">
         <v>101</v>
       </c>
@@ -6225,9 +6225,8 @@
       <c r="O105" s="38">
         <v>3</v>
       </c>
-      <c r="S105" s="17"/>
-    </row>
-    <row r="106" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="28">
         <v>102</v>
       </c>
@@ -6273,9 +6272,8 @@
       <c r="O106" s="34">
         <v>4</v>
       </c>
-      <c r="S106" s="17"/>
-    </row>
-    <row r="107" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="28">
         <v>103</v>
       </c>
@@ -6321,9 +6319,8 @@
       <c r="O107" s="34">
         <v>5</v>
       </c>
-      <c r="S107" s="17"/>
-    </row>
-    <row r="108" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="28">
         <v>104</v>
       </c>
@@ -6369,9 +6366,8 @@
       <c r="O108" s="34">
         <v>6</v>
       </c>
-      <c r="S108" s="17"/>
-    </row>
-    <row r="109" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="28">
         <v>105</v>
       </c>
@@ -6417,9 +6413,8 @@
       <c r="O109" s="34">
         <v>7</v>
       </c>
-      <c r="S109" s="17"/>
-    </row>
-    <row r="110" spans="1:19" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:18" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="28">
         <v>106</v>
       </c>
@@ -6465,9 +6460,8 @@
       <c r="O110" s="38">
         <v>8</v>
       </c>
-      <c r="S110" s="17"/>
-    </row>
-    <row r="111" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28">
         <v>107</v>
       </c>
@@ -6513,7 +6507,7 @@
       </c>
       <c r="Q111" s="48"/>
     </row>
-    <row r="112" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="28">
         <v>108</v>
       </c>
@@ -6559,7 +6553,7 @@
       </c>
       <c r="Q112" s="48"/>
     </row>
-    <row r="113" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="28">
         <v>109</v>
       </c>
@@ -6607,7 +6601,7 @@
       </c>
       <c r="R113" s="34"/>
     </row>
-    <row r="114" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="28">
         <v>110</v>
       </c>
@@ -6655,7 +6649,7 @@
       </c>
       <c r="R114" s="34"/>
     </row>
-    <row r="115" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="28">
         <v>111</v>
       </c>
@@ -6703,7 +6697,7 @@
       </c>
       <c r="R115" s="34"/>
     </row>
-    <row r="116" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="28">
         <v>112</v>
       </c>
@@ -6751,7 +6745,7 @@
       </c>
       <c r="R116" s="34"/>
     </row>
-    <row r="117" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="28">
         <v>113</v>
       </c>
@@ -6799,7 +6793,7 @@
       </c>
       <c r="R117" s="34"/>
     </row>
-    <row r="118" spans="1:19" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="28">
         <v>114</v>
       </c>
@@ -6847,7 +6841,7 @@
       </c>
       <c r="R118" s="34"/>
     </row>
-    <row r="119" spans="1:19" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="28">
         <v>115</v>
       </c>
@@ -6894,7 +6888,7 @@
       <c r="Q119" s="48"/>
       <c r="R119" s="17"/>
     </row>
-    <row r="120" spans="1:19" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="28">
         <v>116</v>
       </c>
@@ -6941,7 +6935,7 @@
       <c r="Q120" s="48"/>
       <c r="R120" s="17"/>
     </row>
-    <row r="121" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A121" s="28">
         <v>117</v>
       </c>
@@ -6987,9 +6981,8 @@
       <c r="O121" s="38">
         <v>3</v>
       </c>
-      <c r="S121" s="17"/>
-    </row>
-    <row r="122" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:18" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A122" s="28">
         <v>118</v>
       </c>
@@ -7035,9 +7028,8 @@
       <c r="O122" s="34">
         <v>4</v>
       </c>
-      <c r="S122" s="17"/>
-    </row>
-    <row r="123" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:18" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A123" s="28">
         <v>119</v>
       </c>
@@ -7083,9 +7075,8 @@
       <c r="O123" s="34">
         <v>5</v>
       </c>
-      <c r="S123" s="17"/>
-    </row>
-    <row r="124" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:18" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A124" s="28">
         <v>120</v>
       </c>
@@ -7131,9 +7122,8 @@
       <c r="O124" s="34">
         <v>6</v>
       </c>
-      <c r="S124" s="17"/>
-    </row>
-    <row r="125" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:18" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A125" s="28">
         <v>121</v>
       </c>
@@ -7179,9 +7169,8 @@
       <c r="O125" s="34">
         <v>7</v>
       </c>
-      <c r="S125" s="17"/>
-    </row>
-    <row r="126" spans="1:19" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:18" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A126" s="28">
         <v>122</v>
       </c>
@@ -7227,9 +7216,8 @@
       <c r="O126" s="38">
         <v>8</v>
       </c>
-      <c r="S126" s="17"/>
-    </row>
-    <row r="127" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="28">
         <v>123</v>
       </c>
@@ -7255,7 +7243,7 @@
         <v>1250</v>
       </c>
       <c r="I127" s="54">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="J127" s="13">
         <v>1.5</v>
@@ -7272,7 +7260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="28">
         <v>124</v>
       </c>
@@ -7298,7 +7286,7 @@
         <v>2500</v>
       </c>
       <c r="I128" s="54">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="J128" s="13">
         <v>1.5</v>
@@ -7341,7 +7329,7 @@
         <v>5000</v>
       </c>
       <c r="I129" s="54">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="J129" s="13">
         <v>1.5</v>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D655A0E-EB2F-4FB1-A8A7-FB2072F49079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0B68E4-59C2-4157-B03B-01DEA8C45314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="235">
   <si>
     <t>int</t>
   </si>
@@ -874,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,9 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1265,11 +1262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <pane ySplit="3" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U157" sqref="U157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7390,7 +7387,692 @@
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A131" s="56"/>
+      <c r="A131" s="28">
+        <v>127</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="40">
+        <v>2007</v>
+      </c>
+      <c r="E131" s="40">
+        <v>0</v>
+      </c>
+      <c r="F131" s="45">
+        <v>25000000000</v>
+      </c>
+      <c r="G131" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H131" s="40">
+        <v>1250</v>
+      </c>
+      <c r="I131" s="54">
+        <v>80000</v>
+      </c>
+      <c r="J131" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K131" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O131" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" s="28">
+        <v>128</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D132" s="40">
+        <v>2008</v>
+      </c>
+      <c r="E132" s="40">
+        <v>0</v>
+      </c>
+      <c r="F132" s="45">
+        <v>50000000000</v>
+      </c>
+      <c r="G132" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H132" s="40">
+        <v>2500</v>
+      </c>
+      <c r="I132" s="54">
+        <v>200000</v>
+      </c>
+      <c r="J132" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K132" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O132" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A133" s="28">
+        <v>129</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="40">
+        <v>2009</v>
+      </c>
+      <c r="E133" s="40">
+        <v>0</v>
+      </c>
+      <c r="F133" s="45">
+        <v>100000000000</v>
+      </c>
+      <c r="G133" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H133" s="40">
+        <v>5000</v>
+      </c>
+      <c r="I133" s="54">
+        <v>450000</v>
+      </c>
+      <c r="J133" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K133" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L133" s="40"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O133" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A134" s="28">
+        <v>130</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="40">
+        <v>2010</v>
+      </c>
+      <c r="E134" s="40">
+        <v>0</v>
+      </c>
+      <c r="F134" s="45">
+        <v>2000000000000</v>
+      </c>
+      <c r="G134" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H134" s="40">
+        <v>10000</v>
+      </c>
+      <c r="I134" s="54">
+        <v>4000000</v>
+      </c>
+      <c r="J134" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K134" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O134" s="55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A135" s="28">
+        <v>131</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" s="40">
+        <v>2007</v>
+      </c>
+      <c r="E135" s="40">
+        <v>0</v>
+      </c>
+      <c r="F135" s="45">
+        <v>25000000000</v>
+      </c>
+      <c r="G135" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H135" s="40">
+        <v>1250</v>
+      </c>
+      <c r="I135" s="54">
+        <v>80000</v>
+      </c>
+      <c r="J135" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K135" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O135" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A136" s="28">
+        <v>132</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" s="40">
+        <v>2008</v>
+      </c>
+      <c r="E136" s="40">
+        <v>0</v>
+      </c>
+      <c r="F136" s="45">
+        <v>50000000000</v>
+      </c>
+      <c r="G136" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H136" s="40">
+        <v>2500</v>
+      </c>
+      <c r="I136" s="54">
+        <v>200000</v>
+      </c>
+      <c r="J136" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K136" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L136" s="40"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O136" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" s="28">
+        <v>133</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="40">
+        <v>2009</v>
+      </c>
+      <c r="E137" s="40">
+        <v>0</v>
+      </c>
+      <c r="F137" s="45">
+        <v>100000000000</v>
+      </c>
+      <c r="G137" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H137" s="40">
+        <v>5000</v>
+      </c>
+      <c r="I137" s="54">
+        <v>450000</v>
+      </c>
+      <c r="J137" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K137" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O137" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" s="28">
+        <v>134</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" s="40">
+        <v>2010</v>
+      </c>
+      <c r="E138" s="40">
+        <v>0</v>
+      </c>
+      <c r="F138" s="45">
+        <v>2000000000000</v>
+      </c>
+      <c r="G138" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H138" s="40">
+        <v>10000</v>
+      </c>
+      <c r="I138" s="54">
+        <v>4000000</v>
+      </c>
+      <c r="J138" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K138" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O138" s="55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" s="28">
+        <v>135</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="40">
+        <v>2007</v>
+      </c>
+      <c r="E139" s="40">
+        <v>0</v>
+      </c>
+      <c r="F139" s="45">
+        <v>25000000000</v>
+      </c>
+      <c r="G139" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H139" s="40">
+        <v>1250</v>
+      </c>
+      <c r="I139" s="54">
+        <v>80000</v>
+      </c>
+      <c r="J139" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K139" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L139" s="40"/>
+      <c r="M139" s="40"/>
+      <c r="N139" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O139" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" s="28">
+        <v>136</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D140" s="40">
+        <v>2008</v>
+      </c>
+      <c r="E140" s="40">
+        <v>0</v>
+      </c>
+      <c r="F140" s="45">
+        <v>50000000000</v>
+      </c>
+      <c r="G140" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H140" s="40">
+        <v>2500</v>
+      </c>
+      <c r="I140" s="54">
+        <v>200000</v>
+      </c>
+      <c r="J140" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K140" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L140" s="40"/>
+      <c r="M140" s="40"/>
+      <c r="N140" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O140" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" s="28">
+        <v>137</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="40">
+        <v>2009</v>
+      </c>
+      <c r="E141" s="40">
+        <v>0</v>
+      </c>
+      <c r="F141" s="45">
+        <v>100000000000</v>
+      </c>
+      <c r="G141" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H141" s="40">
+        <v>5000</v>
+      </c>
+      <c r="I141" s="54">
+        <v>450000</v>
+      </c>
+      <c r="J141" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K141" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L141" s="40"/>
+      <c r="M141" s="40"/>
+      <c r="N141" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O141" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" s="28">
+        <v>138</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D142" s="40">
+        <v>2010</v>
+      </c>
+      <c r="E142" s="40">
+        <v>0</v>
+      </c>
+      <c r="F142" s="45">
+        <v>2000000000000</v>
+      </c>
+      <c r="G142" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H142" s="40">
+        <v>10000</v>
+      </c>
+      <c r="I142" s="54">
+        <v>4000000</v>
+      </c>
+      <c r="J142" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K142" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L142" s="40"/>
+      <c r="M142" s="40"/>
+      <c r="N142" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O142" s="55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A143" s="28">
+        <v>139</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" s="40">
+        <v>2007</v>
+      </c>
+      <c r="E143" s="40">
+        <v>0</v>
+      </c>
+      <c r="F143" s="45">
+        <v>25000000000</v>
+      </c>
+      <c r="G143" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H143" s="40">
+        <v>1250</v>
+      </c>
+      <c r="I143" s="54">
+        <v>80000</v>
+      </c>
+      <c r="J143" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K143" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L143" s="40"/>
+      <c r="M143" s="40"/>
+      <c r="N143" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O143" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A144" s="28">
+        <v>140</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="40">
+        <v>2008</v>
+      </c>
+      <c r="E144" s="40">
+        <v>0</v>
+      </c>
+      <c r="F144" s="45">
+        <v>50000000000</v>
+      </c>
+      <c r="G144" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H144" s="40">
+        <v>2500</v>
+      </c>
+      <c r="I144" s="54">
+        <v>200000</v>
+      </c>
+      <c r="J144" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K144" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O144" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" s="28">
+        <v>141</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D145" s="40">
+        <v>2009</v>
+      </c>
+      <c r="E145" s="40">
+        <v>0</v>
+      </c>
+      <c r="F145" s="45">
+        <v>100000000000</v>
+      </c>
+      <c r="G145" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H145" s="40">
+        <v>5000</v>
+      </c>
+      <c r="I145" s="54">
+        <v>450000</v>
+      </c>
+      <c r="J145" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K145" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L145" s="40"/>
+      <c r="M145" s="40"/>
+      <c r="N145" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O145" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" s="28">
+        <v>142</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D146" s="40">
+        <v>2010</v>
+      </c>
+      <c r="E146" s="40">
+        <v>0</v>
+      </c>
+      <c r="F146" s="45">
+        <v>2000000000000</v>
+      </c>
+      <c r="G146" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H146" s="40">
+        <v>10000</v>
+      </c>
+      <c r="I146" s="54">
+        <v>4000000</v>
+      </c>
+      <c r="J146" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K146" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L146" s="40"/>
+      <c r="M146" s="40"/>
+      <c r="N146" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="O146" s="55">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7417,1162 +8099,1162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="S3" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="T3" s="58" t="s">
+      <c r="T3" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="U3" s="58" t="s">
+      <c r="U3" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60">
+      <c r="A5" s="59">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="61">
         <v>0</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>10</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="59">
         <v>15</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="59">
         <v>1</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59">
         <v>5000</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="59">
         <v>1</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="61">
         <v>500</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="61">
         <v>20</v>
       </c>
-      <c r="N5" s="60"/>
-      <c r="O5" s="62" t="s">
+      <c r="N5" s="59"/>
+      <c r="O5" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="P5" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="59">
         <v>1000</v>
       </c>
-      <c r="R5" s="60">
+      <c r="R5" s="59">
         <v>-56</v>
       </c>
-      <c r="S5" s="60"/>
-      <c r="T5" s="61" t="s">
+      <c r="S5" s="59"/>
+      <c r="T5" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="61" t="s">
+      <c r="U5" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="58"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="61">
         <v>0</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <v>10</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="59">
         <v>15</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <v>1</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59">
         <v>5000</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="59">
         <v>1</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <v>500</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="61">
         <v>20</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="62" t="s">
+      <c r="N6" s="59"/>
+      <c r="O6" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="61" t="s">
+      <c r="P6" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="59">
         <v>1000</v>
       </c>
-      <c r="R6" s="60">
+      <c r="R6" s="59">
         <v>-56</v>
       </c>
-      <c r="S6" s="60"/>
-      <c r="T6" s="61" t="s">
+      <c r="S6" s="59"/>
+      <c r="T6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="58"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60">
+      <c r="A7" s="59">
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="61">
         <v>0</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="61">
         <v>10</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="59">
         <v>15</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>1</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59">
         <v>5000</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="59">
         <v>1</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="61">
         <v>500</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="61">
         <v>20</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="59"/>
+      <c r="O7" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="P7" s="61" t="s">
+      <c r="P7" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="Q7" s="60">
+      <c r="Q7" s="59">
         <v>1000</v>
       </c>
-      <c r="R7" s="60">
+      <c r="R7" s="59">
         <v>-56</v>
       </c>
-      <c r="S7" s="60"/>
-      <c r="T7" s="61" t="s">
+      <c r="S7" s="59"/>
+      <c r="T7" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="U7" s="61" t="s">
+      <c r="U7" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="58"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="57"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="61">
         <v>0</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="61">
         <v>10</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="59">
         <v>30</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>1</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="60">
+      <c r="I8" s="61"/>
+      <c r="J8" s="59">
         <v>5000</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="59">
         <v>1</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="61">
         <v>500</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="61">
         <v>20</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62" t="s">
+      <c r="N8" s="61"/>
+      <c r="O8" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="P8" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="Q8" s="62">
+      <c r="Q8" s="61">
         <v>1000</v>
       </c>
-      <c r="R8" s="62">
+      <c r="R8" s="61">
         <v>-61</v>
       </c>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62" t="s">
+      <c r="S8" s="61"/>
+      <c r="T8" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="U8" s="61" t="s">
+      <c r="U8" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="58"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60">
+      <c r="A9" s="59">
         <v>5</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="61">
         <v>0</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="61">
         <v>10</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="59">
         <v>30</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>1</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="60">
+      <c r="I9" s="61"/>
+      <c r="J9" s="59">
         <v>5000</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="59">
         <v>1</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="61">
         <v>500</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="61">
         <v>20</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62" t="s">
+      <c r="N9" s="61"/>
+      <c r="O9" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="P9" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="Q9" s="60">
+      <c r="Q9" s="59">
         <v>1000</v>
       </c>
-      <c r="R9" s="62">
+      <c r="R9" s="61">
         <v>-61</v>
       </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62" t="s">
+      <c r="S9" s="61"/>
+      <c r="T9" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="U9" s="61" t="s">
+      <c r="U9" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="58"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>6</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <v>0</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="61">
         <v>10</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="59">
         <v>30</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>1</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="60">
+      <c r="I10" s="61"/>
+      <c r="J10" s="59">
         <v>5000</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="59">
         <v>1</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="61">
         <v>500</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="61">
         <v>20</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62" t="s">
+      <c r="N10" s="61"/>
+      <c r="O10" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="P10" s="62" t="s">
+      <c r="P10" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="Q10" s="60">
+      <c r="Q10" s="59">
         <v>1000</v>
       </c>
-      <c r="R10" s="62">
+      <c r="R10" s="61">
         <v>-61</v>
       </c>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62" t="s">
+      <c r="S10" s="61"/>
+      <c r="T10" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="U10" s="61" t="s">
+      <c r="U10" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="58"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="57"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="60">
+      <c r="A11" s="59">
         <v>7</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="61">
         <v>0</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="61">
         <v>10</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="59">
         <v>50</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>1</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="60">
+      <c r="I11" s="61"/>
+      <c r="J11" s="59">
         <v>5000</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="59">
         <v>1</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="61">
         <v>500</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="61">
         <v>20</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="62" t="s">
+      <c r="P11" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="Q11" s="60">
+      <c r="Q11" s="59">
         <v>1000</v>
       </c>
-      <c r="R11" s="60">
+      <c r="R11" s="59">
         <v>-56</v>
       </c>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62" t="s">
+      <c r="S11" s="61"/>
+      <c r="T11" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="U11" s="61" t="s">
+      <c r="U11" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="58"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>8</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="61">
         <v>0</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="61">
         <v>10</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="59">
         <v>50</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <v>1</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="60">
+      <c r="I12" s="61"/>
+      <c r="J12" s="59">
         <v>5000</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="59">
         <v>1</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="61">
         <v>500</v>
       </c>
-      <c r="M12" s="62">
+      <c r="M12" s="61">
         <v>20</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62" t="s">
+      <c r="N12" s="61"/>
+      <c r="O12" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="P12" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="Q12" s="60">
+      <c r="Q12" s="59">
         <v>1000</v>
       </c>
-      <c r="R12" s="60">
+      <c r="R12" s="59">
         <v>-56</v>
       </c>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62" t="s">
+      <c r="S12" s="61"/>
+      <c r="T12" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="58"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="57"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>9</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="61">
         <v>0</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="61">
         <v>10</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="59">
         <v>50</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="59">
         <v>1</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="60">
+      <c r="I13" s="61"/>
+      <c r="J13" s="59">
         <v>5000</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="59">
         <v>1</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="61">
         <v>500</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="61">
         <v>20</v>
       </c>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62" t="s">
+      <c r="N13" s="61"/>
+      <c r="O13" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="62" t="s">
+      <c r="P13" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="Q13" s="60">
+      <c r="Q13" s="59">
         <v>1000</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="59">
         <v>-56</v>
       </c>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62" t="s">
+      <c r="S13" s="61"/>
+      <c r="T13" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="U13" s="61" t="s">
+      <c r="U13" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="58"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="57"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62">
+      <c r="A14" s="61">
         <v>10</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="61">
         <v>1</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="61">
         <v>50</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <v>200</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <v>1</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="59">
         <v>5000</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62">
+      <c r="K14" s="61"/>
+      <c r="L14" s="61">
         <v>2000</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="61">
         <v>180</v>
       </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62" t="s">
+      <c r="N14" s="61"/>
+      <c r="O14" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="P14" s="62" t="s">
+      <c r="P14" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="Q14" s="62">
+      <c r="Q14" s="61">
         <v>1000</v>
       </c>
-      <c r="R14" s="62">
+      <c r="R14" s="61">
         <v>48</v>
       </c>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62" t="s">
+      <c r="S14" s="61"/>
+      <c r="T14" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="U14" s="61" t="s">
+      <c r="U14" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="58"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="58"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="57"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="58"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="58"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="58"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="58"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="57"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="58"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="58"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="57"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="62"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="58"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="57"/>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="58"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="57"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="62"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="58"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
+++ b/pet-simulator/Excel/SceneUnit_场景单位表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0B68E4-59C2-4157-B03B-01DEA8C45314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8534DD-03FE-4B3E-BB9A-7A5323802289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,8 +1265,8 @@
   <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U157" sqref="U157"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S114" sqref="S114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1286,7 +1286,7 @@
     <col min="15" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="15.875" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="981" max="997" width="11" customWidth="1"/>
+    <col min="976" max="992" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4583,13 +4583,13 @@
         <v>8</v>
       </c>
       <c r="F71" s="32">
-        <v>178500</v>
+        <v>266561</v>
       </c>
       <c r="G71" s="28">
         <v>2</v>
       </c>
       <c r="H71" s="28">
-        <v>4200</v>
+        <v>5888</v>
       </c>
       <c r="I71" s="32"/>
       <c r="J71" s="13">
@@ -4629,13 +4629,13 @@
         <v>4</v>
       </c>
       <c r="F72" s="32">
-        <v>420000</v>
+        <v>627202</v>
       </c>
       <c r="G72" s="28">
         <v>2</v>
       </c>
       <c r="H72" s="28">
-        <v>9450</v>
+        <v>14112</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="13">
@@ -4963,13 +4963,13 @@
         <v>8</v>
       </c>
       <c r="F79" s="50">
-        <v>187425</v>
+        <v>279889</v>
       </c>
       <c r="G79" s="10">
         <v>2</v>
       </c>
       <c r="H79" s="10">
-        <v>4620</v>
+        <v>6451</v>
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="13">
@@ -5009,13 +5009,13 @@
         <v>4</v>
       </c>
       <c r="F80" s="14">
-        <v>441000</v>
+        <v>658562</v>
       </c>
       <c r="G80" s="10">
         <v>2</v>
       </c>
       <c r="H80" s="10">
-        <v>10395</v>
+        <v>15523</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="13">
@@ -5343,13 +5343,13 @@
         <v>8</v>
       </c>
       <c r="F87" s="32">
-        <v>196796</v>
+        <v>293883</v>
       </c>
       <c r="G87" s="28">
         <v>2</v>
       </c>
       <c r="H87" s="28">
-        <v>5082</v>
+        <v>7141</v>
       </c>
       <c r="I87" s="32"/>
       <c r="J87" s="13">
@@ -5390,13 +5390,13 @@
         <v>4</v>
       </c>
       <c r="F88" s="32">
-        <v>463050</v>
+        <v>691490</v>
       </c>
       <c r="G88" s="28">
         <v>2</v>
       </c>
       <c r="H88" s="28">
-        <v>11433</v>
+        <v>17073</v>
       </c>
       <c r="I88" s="32"/>
       <c r="J88" s="13">
@@ -5719,13 +5719,13 @@
         <v>8</v>
       </c>
       <c r="F95" s="14">
-        <v>206636</v>
+        <v>308577</v>
       </c>
       <c r="G95" s="10">
         <v>2</v>
       </c>
       <c r="H95" s="14">
-        <v>5590</v>
+        <v>7750</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="13">
@@ -5765,13 +5765,13 @@
         <v>4</v>
       </c>
       <c r="F96" s="14">
-        <v>486202</v>
+        <v>726064</v>
       </c>
       <c r="G96" s="10">
         <v>2</v>
       </c>
       <c r="H96" s="14">
-        <v>12577</v>
+        <v>18781</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="13">
@@ -6099,13 +6099,13 @@
         <v>8</v>
       </c>
       <c r="F103" s="32">
-        <v>216967</v>
+        <v>324005</v>
       </c>
       <c r="G103" s="28">
         <v>2</v>
       </c>
       <c r="H103" s="32">
-        <v>6148</v>
+        <v>8583</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="13">
@@ -6146,13 +6146,13 @@
         <v>4</v>
       </c>
       <c r="F104" s="32">
-        <v>510512</v>
+        <v>762367</v>
       </c>
       <c r="G104" s="28">
         <v>2</v>
       </c>
       <c r="H104" s="32">
-        <v>13834</v>
+        <v>20658</v>
       </c>
       <c r="I104" s="32"/>
       <c r="J104" s="13">
@@ -6475,13 +6475,13 @@
         <v>8</v>
       </c>
       <c r="F111" s="14">
-        <v>227816</v>
+        <v>340206</v>
       </c>
       <c r="G111" s="10">
         <v>2</v>
       </c>
       <c r="H111" s="14">
-        <v>6763</v>
+        <v>9309</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="13">
@@ -6521,13 +6521,13 @@
         <v>4</v>
       </c>
       <c r="F112" s="14">
-        <v>536038</v>
+        <v>800486</v>
       </c>
       <c r="G112" s="10">
         <v>2</v>
       </c>
       <c r="H112" s="14">
-        <v>15218</v>
+        <v>22725</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="13">
@@ -6855,13 +6855,13 @@
         <v>8</v>
       </c>
       <c r="F119" s="32">
-        <v>239207</v>
+        <v>357217</v>
       </c>
       <c r="G119" s="28">
         <v>2</v>
       </c>
       <c r="H119" s="32">
-        <v>7439</v>
+        <v>10475</v>
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="13">
@@ -6902,13 +6902,13 @@
         <v>4</v>
       </c>
       <c r="F120" s="32">
-        <v>562840</v>
+        <v>840511</v>
       </c>
       <c r="G120" s="28">
         <v>2</v>
       </c>
       <c r="H120" s="32">
-        <v>16741</v>
+        <v>25000</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="13">
